--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvija\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BDAA8C-C4B0-4383-B462-55FC5436258D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="479">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2067,31 +2061,6 @@
   </si>
   <si>
     <r>
-      <t>Provide appropriate file to this folder.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">C:\ftproot. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>From this folder, they tried to get input</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The below tables are missing
 </t>
     </r>
@@ -2219,10 +2188,6 @@
   </si>
   <si>
     <t>WRN_SUB</t>
-  </si>
-  <si>
-    <t>Implemented missing tables what they
-provided. But Need functional knowledge for move furthermore</t>
   </si>
   <si>
     <t xml:space="preserve">V_cls_022 </t>
@@ -2325,39 +2290,6 @@
     <t>CX_WRN_MAIN</t>
   </si>
   <si>
-    <t>sp_err_list(sp)</t>
-  </si>
-  <si>
-    <t>sp_soukatsu_list(sp)</t>
-  </si>
-  <si>
-    <t>sp_soukatsu_list_2(sp)</t>
-  </si>
-  <si>
-    <t>sp_anshin_list(sp)</t>
-  </si>
-  <si>
-    <t>sp_anshin_list_2(sp)</t>
-  </si>
-  <si>
-    <t>sp_CX_list(sp)</t>
-  </si>
-  <si>
-    <t>sp_err_list2(sp)</t>
-  </si>
-  <si>
-    <t>sp_Shop_mtr(sp)</t>
-  </si>
-  <si>
-    <t>sp_vdr_mtr(sp)</t>
-  </si>
-  <si>
-    <t>sp_item_mtr(sp)</t>
-  </si>
-  <si>
-    <t>sp_section_mtr(sp)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2383,12 +2315,54 @@
   <si>
     <t xml:space="preserve">no ini found(DB from web.config) </t>
   </si>
+  <si>
+    <t>.Import Document Need tocheck functionality</t>
+  </si>
+  <si>
+    <t>Missing SP</t>
+  </si>
+  <si>
+    <t>Missing Table</t>
+  </si>
+  <si>
+    <t>sp_err_list</t>
+  </si>
+  <si>
+    <t>sp_soukatsu_list</t>
+  </si>
+  <si>
+    <t>sp_soukatsu_list_2</t>
+  </si>
+  <si>
+    <t>sp_anshin_list</t>
+  </si>
+  <si>
+    <t>sp_anshin_list_2</t>
+  </si>
+  <si>
+    <t>sp_CX_list</t>
+  </si>
+  <si>
+    <t>sp_err_list2</t>
+  </si>
+  <si>
+    <t>sp_Shop_mtr</t>
+  </si>
+  <si>
+    <t>sp_vdr_mtr</t>
+  </si>
+  <si>
+    <t>sp_item_mtr</t>
+  </si>
+  <si>
+    <t>sp_section_mtr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2694,7 +2668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2812,7 +2786,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,19 +2810,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2845,25 +2831,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,9 +2855,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2895,6 +2863,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2956,7 +2933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2988,27 +2965,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3040,24 +2999,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3233,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3247,7 +3188,7 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3255,7 +3196,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3267,8 +3208,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3281,48 +3222,48 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3333,8 +3274,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="47"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -3345,8 +3286,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="47"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3357,8 +3298,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -3369,8 +3310,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -3381,8 +3322,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="47"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -3393,8 +3334,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3407,8 +3348,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3419,8 +3360,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -3431,8 +3372,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3443,8 +3384,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3455,8 +3396,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3467,8 +3408,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="47"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -3479,8 +3420,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3491,8 +3432,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -3503,8 +3444,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -3515,8 +3456,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="47"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3527,8 +3468,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3539,8 +3480,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="47"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3551,8 +3492,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -3563,8 +3504,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="47"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3575,8 +3516,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="47"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3587,8 +3528,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3599,8 +3540,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3611,8 +3552,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="47"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3623,8 +3564,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3576,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="47"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3647,8 +3588,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="47"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3659,8 +3600,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:4">
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -3671,8 +3612,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:4">
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3683,8 +3624,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:4">
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3695,8 +3636,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="47"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3707,8 +3648,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:4">
+      <c r="A39" s="47"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3719,8 +3660,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="47"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3731,8 +3672,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="47"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -3743,8 +3684,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="47"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3755,8 +3696,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="47"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -3767,8 +3708,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="47"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3779,8 +3720,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
+    <row r="45" spans="1:4">
+      <c r="A45" s="47"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -3791,8 +3732,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="47"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3803,8 +3744,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="47"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -3815,8 +3756,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+    <row r="48" spans="1:4">
+      <c r="A48" s="47"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -3827,8 +3768,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3841,8 +3782,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+    <row r="50" spans="1:4">
+      <c r="A50" s="47"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3853,8 +3794,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="47"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3865,8 +3806,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+    <row r="52" spans="1:4">
+      <c r="A52" s="47"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +3818,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="47"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -3889,8 +3830,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="47"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3901,8 +3842,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="47"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -3913,8 +3854,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="47"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3925,8 +3866,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+    <row r="57" spans="1:4">
+      <c r="A57" s="47"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3937,8 +3878,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="47"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3949,8 +3890,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="47"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -3961,8 +3902,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
+    <row r="60" spans="1:4">
+      <c r="A60" s="47"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3973,8 +3914,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="43" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3987,8 +3928,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
+    <row r="62" spans="1:4">
+      <c r="A62" s="47"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -3999,8 +3940,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
+    <row r="63" spans="1:4">
+      <c r="A63" s="47"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -4011,8 +3952,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="43" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -4025,8 +3966,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
+    <row r="65" spans="1:4">
+      <c r="A65" s="47"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -4037,8 +3978,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
+    <row r="66" spans="1:4">
+      <c r="A66" s="47"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -4049,8 +3990,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4063,28 +4004,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="46" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="47"/>
+      <c r="B68" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
+    <row r="69" spans="1:4">
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+    <row r="70" spans="1:4">
+      <c r="A70" s="47"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -4095,28 +4036,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="47"/>
+      <c r="B71" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
+    <row r="72" spans="1:4">
+      <c r="A72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
+    <row r="73" spans="1:4">
+      <c r="A73" s="47"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -4127,8 +4068,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
+    <row r="74" spans="1:4">
+      <c r="A74" s="47"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -4139,8 +4080,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="43" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4153,48 +4094,48 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="46" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="47"/>
+      <c r="B76" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="46" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="47"/>
+      <c r="B78" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="47"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
+    <row r="80" spans="1:4">
+      <c r="A80" s="47"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -4205,8 +4146,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="47"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -4217,8 +4158,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="43" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4231,28 +4172,28 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="47"/>
+      <c r="B83" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
+    <row r="84" spans="1:4">
+      <c r="A84" s="47"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="43"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="47"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -4263,8 +4204,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
+    <row r="86" spans="1:4">
+      <c r="A86" s="47"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -4275,19 +4216,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4296,14 +4239,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4316,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4330,7 +4271,7 @@
       <selection pane="bottomRight" activeCell="C68" sqref="C68:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -4339,7 +4280,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4352,8 +4293,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4367,12 +4308,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -4380,21 +4321,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="47"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="49" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -4402,17 +4343,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="43"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="47"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="47"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -4424,8 +4365,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="47"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -4439,8 +4380,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="47"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -4454,8 +4395,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -4467,8 +4408,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -4480,8 +4421,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="47"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -4493,8 +4434,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4508,8 +4449,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4521,8 +4462,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -4534,8 +4475,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -4547,8 +4488,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -4560,8 +4501,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -4573,8 +4514,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="47"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -4586,8 +4527,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -4599,8 +4540,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -4612,8 +4553,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -4625,8 +4566,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="47"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -4638,8 +4579,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -4651,8 +4592,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="47"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -4664,8 +4605,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -4677,8 +4618,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="47"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -4690,8 +4631,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="47"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -4703,8 +4644,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4716,8 +4657,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -4729,8 +4670,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="47"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -4742,8 +4683,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -4755,8 +4696,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="47"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -4768,8 +4709,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="47"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -4781,8 +4722,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="47"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -4794,8 +4735,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:5">
+      <c r="A36" s="47"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -4807,8 +4748,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="47"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -4820,8 +4761,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:5">
+      <c r="A38" s="47"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -4833,8 +4774,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="47"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -4846,8 +4787,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="47"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -4859,8 +4800,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="47"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -4872,8 +4813,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="47"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -4887,8 +4828,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+    <row r="43" spans="1:5">
+      <c r="A43" s="47"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -4902,8 +4843,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
+    <row r="44" spans="1:5">
+      <c r="A44" s="47"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -4917,8 +4858,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="47"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -4930,8 +4871,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+    <row r="46" spans="1:5">
+      <c r="A46" s="47"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -4943,8 +4884,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="47"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -4956,8 +4897,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="47"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4969,8 +4910,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="47" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4984,8 +4925,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+    <row r="50" spans="1:5">
+      <c r="A50" s="47"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -4997,8 +4938,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+    <row r="51" spans="1:5">
+      <c r="A51" s="47"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -5010,8 +4951,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+    <row r="52" spans="1:5">
+      <c r="A52" s="47"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -5023,8 +4964,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+    <row r="53" spans="1:5">
+      <c r="A53" s="47"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -5036,8 +4977,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+    <row r="54" spans="1:5">
+      <c r="A54" s="47"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -5049,8 +4990,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
+    <row r="55" spans="1:5">
+      <c r="A55" s="47"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -5062,8 +5003,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+    <row r="56" spans="1:5">
+      <c r="A56" s="47"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -5075,8 +5016,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+    <row r="57" spans="1:5">
+      <c r="A57" s="47"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -5090,8 +5031,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="47"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -5103,8 +5044,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
+    <row r="59" spans="1:5">
+      <c r="A59" s="47"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -5118,8 +5059,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
+    <row r="60" spans="1:5">
+      <c r="A60" s="47"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -5131,8 +5072,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="43" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -5146,8 +5087,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
+    <row r="62" spans="1:5">
+      <c r="A62" s="47"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -5159,8 +5100,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
+    <row r="63" spans="1:5">
+      <c r="A63" s="47"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -5172,8 +5113,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="43" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="47" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5187,8 +5128,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
+    <row r="65" spans="1:5">
+      <c r="A65" s="47"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -5200,8 +5141,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
+    <row r="66" spans="1:5">
+      <c r="A66" s="47"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -5213,8 +5154,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="47" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5228,12 +5169,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
-      <c r="B68" s="47" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="47"/>
+      <c r="B68" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5241,17 +5182,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="43"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="46"/>
+    <row r="69" spans="1:5">
+      <c r="A69" s="47"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+    <row r="70" spans="1:5">
+      <c r="A70" s="47"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -5263,12 +5204,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="47"/>
+      <c r="B71" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5276,17 +5217,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="46"/>
+    <row r="72" spans="1:5">
+      <c r="A72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
+    <row r="73" spans="1:5">
+      <c r="A73" s="47"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -5298,8 +5239,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
+    <row r="74" spans="1:5">
+      <c r="A74" s="47"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -5311,8 +5252,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="43" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -5326,12 +5267,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
-      <c r="B76" s="47" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="47"/>
+      <c r="B76" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="48" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5339,21 +5280,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="46"/>
+    <row r="77" spans="1:5">
+      <c r="A77" s="47"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
-      <c r="B78" s="46" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="47"/>
+      <c r="B78" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="48" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5361,17 +5302,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46"/>
+    <row r="79" spans="1:5">
+      <c r="A79" s="47"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="47"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -5383,8 +5324,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="47"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -5396,8 +5337,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="43" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5411,12 +5352,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="47"/>
+      <c r="B83" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5424,17 +5365,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
+    <row r="84" spans="1:5">
+      <c r="A84" s="47"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="43"/>
+    <row r="85" spans="1:5">
+      <c r="A85" s="47"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -5446,8 +5387,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
+    <row r="86" spans="1:5">
+      <c r="A86" s="47"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -5459,35 +5400,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5504,6 +5439,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5515,14 +5456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -5530,12 +5471,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5544,8 +5485,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5555,8 +5496,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="55"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -5564,8 +5505,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="55"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -5573,8 +5514,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:3" ht="78.75">
+      <c r="A7" s="55"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -5582,7 +5523,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5591,7 +5532,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5602,7 +5543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5613,7 +5554,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5635,14 +5576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -5655,7 +5596,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5680,8 +5621,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:15232" ht="27">
+      <c r="A2" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5703,8 +5644,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
+    <row r="3" spans="1:15232" ht="54">
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -5724,8 +5665,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:15232">
+      <c r="A4" s="47"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5737,8 +5678,8 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:15232">
+      <c r="A5" s="47"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -5758,8 +5699,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:15232">
+      <c r="A6" s="47"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5771,8 +5712,8 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:15232">
+      <c r="A7" s="47"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -5790,8 +5731,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:15232" ht="27">
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -5809,8 +5750,8 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:15232">
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -5828,8 +5769,8 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:15232">
+      <c r="A10" s="47"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -5845,8 +5786,8 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:15232">
+      <c r="A11" s="47"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -5862,8 +5803,8 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:15232">
+      <c r="A12" s="47"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -5879,7 +5820,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5889,7 +5830,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5899,8 +5840,8 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
+      <c r="A15" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -21143,8 +21084,8 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:15232">
+      <c r="A16" s="47"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -21164,8 +21105,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="47"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -21185,8 +21126,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="47"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -21206,8 +21147,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:9" s="18" customFormat="1">
+      <c r="A19" s="47"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -21225,8 +21166,8 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:9" s="18" customFormat="1">
+      <c r="A20" s="47"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -21246,8 +21187,8 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -21267,8 +21208,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A22" s="47"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -21288,8 +21229,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:9" s="18" customFormat="1">
+      <c r="A23" s="47"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -21309,8 +21250,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A24" s="47"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -21330,8 +21271,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A25" s="47"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -21351,8 +21292,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A26" s="47"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -21372,8 +21313,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A27" s="47"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -21393,8 +21334,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:9" s="18" customFormat="1">
+      <c r="A28" s="47"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -21412,8 +21353,8 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A29" s="47"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -21433,8 +21374,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A30" s="47"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -21454,8 +21395,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A31" s="47"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -21475,8 +21416,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A32" s="47"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -21496,8 +21437,8 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A33" s="47"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -21517,8 +21458,8 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A34" s="47"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -21538,8 +21479,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A35" s="47"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -21559,8 +21500,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A36" s="47"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -21580,8 +21521,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A37" s="47"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -21601,8 +21542,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A38" s="47"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -21624,8 +21565,8 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A39" s="47"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -21647,8 +21588,8 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A40" s="47"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -21670,8 +21611,8 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A41" s="47"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -21693,8 +21634,8 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A42" s="47"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -21716,8 +21657,8 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A43" s="47"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -21737,8 +21678,8 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
+    <row r="44" spans="1:9" s="18" customFormat="1">
+      <c r="A44" s="47"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -21756,8 +21697,8 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
+    <row r="45" spans="1:9" s="18" customFormat="1">
+      <c r="A45" s="47"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -21775,8 +21716,8 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A46" s="47"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -21794,8 +21735,8 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+    <row r="47" spans="1:9" s="18" customFormat="1">
+      <c r="A47" s="47"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -21811,8 +21752,8 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+    <row r="48" spans="1:9" s="18" customFormat="1">
+      <c r="A48" s="47"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -21828,8 +21769,8 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
+    <row r="49" spans="1:9" s="18" customFormat="1">
+      <c r="A49" s="47"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -21845,8 +21786,8 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+    <row r="50" spans="1:9" s="18" customFormat="1">
+      <c r="A50" s="47"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -21862,7 +21803,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21873,7 +21814,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21884,8 +21825,8 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+    <row r="53" spans="1:9" s="18" customFormat="1">
+      <c r="A53" s="47" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -21903,8 +21844,8 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+    <row r="54" spans="1:9" s="18" customFormat="1">
+      <c r="A54" s="47"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -21920,8 +21861,8 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A55" s="47"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -21941,8 +21882,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+    <row r="56" spans="1:9" s="18" customFormat="1">
+      <c r="A56" s="47"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -21958,8 +21899,8 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+    <row r="57" spans="1:9" s="18" customFormat="1">
+      <c r="A57" s="47"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -21975,8 +21916,8 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+    <row r="58" spans="1:9" s="18" customFormat="1">
+      <c r="A58" s="47"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -21992,8 +21933,8 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
+    <row r="59" spans="1:9" s="18" customFormat="1">
+      <c r="A59" s="47"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -22009,8 +21950,8 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
+    <row r="60" spans="1:9" s="18" customFormat="1">
+      <c r="A60" s="47"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -22026,8 +21967,8 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
+    <row r="61" spans="1:9" s="18" customFormat="1">
+      <c r="A61" s="47"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -22045,8 +21986,8 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
+    <row r="62" spans="1:9" s="18" customFormat="1">
+      <c r="A62" s="47"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -22062,8 +22003,8 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
+    <row r="63" spans="1:9" s="18" customFormat="1">
+      <c r="A63" s="47"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -22081,8 +22022,8 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
+    <row r="64" spans="1:9" s="18" customFormat="1">
+      <c r="A64" s="47"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -22098,7 +22039,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22109,7 +22050,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22120,8 +22061,8 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A67" s="52" t="s">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A67" s="56" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -22143,8 +22084,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A68" s="56"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -22164,8 +22105,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
+    <row r="69" spans="1:9" s="18" customFormat="1">
+      <c r="A69" s="56"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -22181,7 +22122,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22192,7 +22133,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22203,8 +22144,8 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="52" t="s">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A72" s="56" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -22226,8 +22167,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A73" s="56"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -22247,8 +22188,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
+    <row r="74" spans="1:9" s="18" customFormat="1">
+      <c r="A74" s="56"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -22264,7 +22205,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22275,7 +22216,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22286,8 +22227,8 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="43" t="s">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A77" s="47" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -22309,8 +22250,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="43"/>
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A78" s="47"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -22330,8 +22271,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
+    <row r="79" spans="1:9" s="18" customFormat="1">
+      <c r="A79" s="47"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -22343,8 +22284,8 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
+    <row r="80" spans="1:9" s="18" customFormat="1">
+      <c r="A80" s="47"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -22364,8 +22305,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43"/>
+    <row r="81" spans="1:9" s="18" customFormat="1">
+      <c r="A81" s="47"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -22385,8 +22326,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
+    <row r="82" spans="1:9" s="18" customFormat="1">
+      <c r="A82" s="47"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -22398,8 +22339,8 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A83" s="47"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -22419,8 +22360,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="43"/>
+    <row r="84" spans="1:9" s="18" customFormat="1">
+      <c r="A84" s="47"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -22436,7 +22377,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22447,7 +22388,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22458,8 +22399,8 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="43" t="s">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+      <c r="A87" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -22481,8 +22422,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A88" s="47"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -22502,8 +22443,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
+    <row r="89" spans="1:9" s="18" customFormat="1">
+      <c r="A89" s="47"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -22515,8 +22456,8 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A90" s="43"/>
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A90" s="47"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -22536,8 +22477,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="47"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -22549,8 +22490,8 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A92" s="47"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -22570,8 +22511,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
+    <row r="93" spans="1:9" s="18" customFormat="1">
+      <c r="A93" s="47"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -22587,7 +22528,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22598,7 +22539,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22609,8 +22550,8 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="43" t="s">
+    <row r="96" spans="1:9" s="18" customFormat="1">
+      <c r="A96" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -22632,8 +22573,8 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A97" s="47"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -22653,8 +22594,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="43"/>
+    <row r="98" spans="1:9" s="18" customFormat="1">
+      <c r="A98" s="47"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22666,8 +22607,8 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A99" s="43"/>
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A99" s="47"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -22687,8 +22628,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
+    <row r="100" spans="1:9" s="18" customFormat="1">
+      <c r="A100" s="47"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -22704,7 +22645,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22715,7 +22656,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22726,7 +22667,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22737,7 +22678,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22748,7 +22689,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22759,7 +22700,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22768,7 +22709,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22777,7 +22718,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22786,7 +22727,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22796,7 +22737,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22806,7 +22747,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22816,7 +22757,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22826,7 +22767,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22836,7 +22777,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22846,7 +22787,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22856,7 +22797,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22866,7 +22807,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22876,7 +22817,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22886,7 +22827,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22896,7 +22837,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22906,7 +22847,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22916,7 +22857,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22926,7 +22867,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22936,7 +22877,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22946,7 +22887,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22956,7 +22897,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22966,7 +22907,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22976,7 +22917,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22986,7 +22927,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22996,7 +22937,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -23006,7 +22947,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23016,7 +22957,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23026,7 +22967,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23036,7 +22977,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23046,7 +22987,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23056,7 +22997,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23066,7 +23007,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23076,7 +23017,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23086,7 +23027,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23096,7 +23037,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23106,7 +23047,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23116,7 +23057,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23143,14 +23084,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="F58" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -23164,7 +23105,7 @@
     <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23194,8 +23135,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="47" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -23222,12 +23163,12 @@
       <c r="I2" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
+      <c r="J2" s="71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81">
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -23253,11 +23194,11 @@
         <v>335</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="47"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
@@ -23286,8 +23227,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -23310,8 +23251,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="47"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
       </c>
@@ -23338,8 +23279,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="47"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
       </c>
@@ -23366,8 +23307,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
       </c>
@@ -23394,8 +23335,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
       </c>
@@ -23416,8 +23357,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="47"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
       </c>
@@ -23444,8 +23385,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:10">
+      <c r="A11" s="47"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
       </c>
@@ -23472,8 +23413,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:10">
+      <c r="A12" s="47"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
       </c>
@@ -23500,8 +23441,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:10">
+      <c r="A13" s="47"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
@@ -23528,8 +23469,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="47"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
       </c>
@@ -23556,8 +23497,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="47"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
       </c>
@@ -23584,8 +23525,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="47"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
       </c>
@@ -23612,8 +23553,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="47"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
       </c>
@@ -23640,8 +23581,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="47"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
       </c>
@@ -23660,8 +23601,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="47"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
       </c>
@@ -23688,8 +23629,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="47"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
       </c>
@@ -23716,8 +23657,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
       </c>
@@ -23744,8 +23685,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:10">
+      <c r="A22" s="47"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
       </c>
@@ -23772,8 +23713,8 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:10" ht="27">
+      <c r="A23" s="47"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
       </c>
@@ -23802,8 +23743,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="47"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
       </c>
@@ -23830,8 +23771,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:10">
+      <c r="A25" s="47"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
       </c>
@@ -23858,8 +23799,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="47"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
       </c>
@@ -23886,8 +23827,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="47"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
       </c>
@@ -23914,8 +23855,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="47"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
       </c>
@@ -23944,8 +23885,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="47"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
       </c>
@@ -23974,8 +23915,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="47"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
       </c>
@@ -24004,8 +23945,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:10">
+      <c r="A31" s="47"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
       </c>
@@ -24034,8 +23975,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:10">
+      <c r="A32" s="47"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
       </c>
@@ -24064,8 +24005,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:10">
+      <c r="A33" s="47"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
       </c>
@@ -24094,8 +24035,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+    <row r="34" spans="1:10">
+      <c r="A34" s="47"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
       </c>
@@ -24124,8 +24065,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="47"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
       </c>
@@ -24154,8 +24095,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:10">
+      <c r="A36" s="47"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
       </c>
@@ -24184,8 +24125,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="43"/>
+    <row r="37" spans="1:10">
+      <c r="A37" s="47"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
       </c>
@@ -24214,8 +24155,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+    <row r="38" spans="1:10">
+      <c r="A38" s="47"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -24244,8 +24185,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+    <row r="39" spans="1:10">
+      <c r="A39" s="47"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -24274,8 +24215,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:10" ht="27">
+      <c r="A40" s="47"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
       </c>
@@ -24283,7 +24224,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24304,8 +24245,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="43" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="47" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -24326,8 +24267,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:10">
+      <c r="A42" s="47"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
       </c>
@@ -24342,8 +24283,8 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+    <row r="43" spans="1:10">
+      <c r="A43" s="47"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
       </c>
@@ -24358,8 +24299,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
+    <row r="44" spans="1:10">
+      <c r="A44" s="47"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
       </c>
@@ -24374,8 +24315,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
+    <row r="45" spans="1:10">
+      <c r="A45" s="47"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
       </c>
@@ -24390,8 +24331,8 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+    <row r="46" spans="1:10">
+      <c r="A46" s="47"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
       </c>
@@ -24406,8 +24347,8 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+    <row r="47" spans="1:10">
+      <c r="A47" s="47"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
       </c>
@@ -24422,8 +24363,8 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+    <row r="48" spans="1:10">
+      <c r="A48" s="47"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
       </c>
@@ -24438,8 +24379,8 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="43" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -24470,8 +24411,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+    <row r="50" spans="1:10">
+      <c r="A50" s="47"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
       </c>
@@ -24500,8 +24441,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="43" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" s="47" t="s">
         <v>168</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -24532,8 +24473,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="47"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
       </c>
@@ -24562,8 +24503,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+    <row r="53" spans="1:10" ht="81">
+      <c r="A53" s="47" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -24594,8 +24535,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+    <row r="54" spans="1:10">
+      <c r="A54" s="47"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
       </c>
@@ -24624,8 +24565,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
+    <row r="55" spans="1:10">
+      <c r="A55" s="47"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
       </c>
@@ -24654,8 +24595,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+    <row r="56" spans="1:10">
+      <c r="A56" s="47"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
       </c>
@@ -24684,8 +24625,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+    <row r="57" spans="1:10">
+      <c r="A57" s="47"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
       </c>
@@ -24714,8 +24655,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A58" s="43" t="s">
+    <row r="58" spans="1:10" ht="27">
+      <c r="A58" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -24746,8 +24687,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
+    <row r="59" spans="1:10" ht="40.5">
+      <c r="A59" s="47"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
       </c>
@@ -24776,8 +24717,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
+    <row r="60" spans="1:10">
+      <c r="A60" s="47"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
       </c>
@@ -24806,8 +24747,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
+    <row r="61" spans="1:10">
+      <c r="A61" s="47"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
       </c>
@@ -24836,8 +24777,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A62" s="43" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="21" t="s">
@@ -24865,11 +24806,11 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="40.5">
+      <c r="A63" s="47"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
       </c>
@@ -24895,11 +24836,11 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="135" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="135">
+      <c r="A64" s="47"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
       </c>
@@ -24925,11 +24866,11 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64" xr:uid="{7E5FCE3B-18B8-4DFC-9654-CB1C159638A6}"/>
+  <autoFilter ref="A1:J64"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24946,21 +24887,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24971,7 +24912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24982,8 +24923,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="57" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -24993,8 +24934,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="57"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -25002,7 +24943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -25013,7 +24954,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25024,7 +24965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25035,7 +24976,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25046,7 +24987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25057,7 +24998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25068,8 +25009,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="51" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25079,8 +25020,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="52"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25088,7 +25029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -25099,7 +25040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -25110,7 +25051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25121,66 +25062,66 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="45" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="58"/>
+      <c r="B30" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="56"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="58"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
       </c>
@@ -25188,8 +25129,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="56"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="58"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
       </c>
@@ -25197,8 +25138,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="56"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="58"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -25206,8 +25147,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+    <row r="35" spans="1:3">
+      <c r="A35" s="58"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -25215,8 +25156,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="56"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="58"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
       </c>
@@ -25224,19 +25165,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="54" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="58" t="s">
+    <row r="40" spans="1:3" ht="27">
+      <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -25246,8 +25187,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="56" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -25257,8 +25198,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="56"/>
+    <row r="42" spans="1:3">
+      <c r="A42" s="58"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
       </c>
@@ -25266,8 +25207,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
       <c r="B43" s="21" t="s">
@@ -25277,8 +25218,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="58" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
       <c r="B44" s="21" t="s">
@@ -25288,8 +25229,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -25312,14 +25253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="O118" sqref="O118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -25343,39 +25284,39 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="68" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="59" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
         <v>358</v>
       </c>
@@ -25437,7 +25378,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>407</v>
       </c>
@@ -25461,7 +25402,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
@@ -25481,7 +25422,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>407</v>
       </c>
@@ -25505,7 +25446,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
@@ -25525,7 +25466,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>407</v>
       </c>
@@ -25549,13 +25490,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
@@ -25569,7 +25510,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>407</v>
       </c>
@@ -25593,13 +25534,13 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
@@ -25613,7 +25554,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>407</v>
       </c>
@@ -25637,7 +25578,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
@@ -25657,7 +25598,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>407</v>
       </c>
@@ -25681,13 +25622,13 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
@@ -25701,7 +25642,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>407</v>
       </c>
@@ -25725,7 +25666,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
@@ -25745,7 +25686,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>407</v>
       </c>
@@ -25769,7 +25710,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
@@ -25789,7 +25730,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>407</v>
       </c>
@@ -25813,7 +25754,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
@@ -25833,7 +25774,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>407</v>
       </c>
@@ -25857,13 +25798,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
@@ -25877,7 +25818,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>407</v>
       </c>
@@ -25901,13 +25842,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
@@ -25921,7 +25862,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>407</v>
       </c>
@@ -25945,7 +25886,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
@@ -25965,7 +25906,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>407</v>
       </c>
@@ -25989,13 +25930,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
@@ -26009,7 +25950,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>407</v>
       </c>
@@ -26033,7 +25974,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
@@ -26053,7 +25994,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>407</v>
       </c>
@@ -26077,13 +26018,13 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
@@ -26097,7 +26038,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -26115,13 +26056,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
@@ -26135,7 +26076,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -26153,13 +26094,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
@@ -26173,7 +26114,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -26191,7 +26132,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
@@ -26211,7 +26152,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -26229,7 +26170,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
@@ -26249,7 +26190,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26267,13 +26208,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
@@ -26287,7 +26228,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26305,13 +26246,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
@@ -26325,7 +26266,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -26339,13 +26280,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
@@ -26359,7 +26300,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26373,7 +26314,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
@@ -26393,7 +26334,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -26407,7 +26348,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
@@ -26427,7 +26368,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26441,15 +26382,17 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="P27" s="34"/>
+        <v>431</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q27" s="36" t="s">
         <v>361</v>
       </c>
@@ -26461,7 +26404,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26475,15 +26418,17 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="P28" s="34"/>
+        <v>427</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q28" s="36" t="s">
         <v>361</v>
       </c>
@@ -26495,7 +26440,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26509,15 +26454,17 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="P29" s="34"/>
+        <v>432</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q29" s="36" t="s">
         <v>361</v>
       </c>
@@ -26529,7 +26476,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26543,7 +26490,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
@@ -26551,7 +26498,9 @@
       <c r="O30" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="P30" s="34"/>
+      <c r="P30" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q30" s="36" t="s">
         <v>361</v>
       </c>
@@ -26563,7 +26512,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26577,15 +26526,17 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="P31" s="34"/>
+        <v>433</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q31" s="36" t="s">
         <v>361</v>
       </c>
@@ -26597,7 +26548,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26611,15 +26562,17 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="P32" s="34"/>
+        <v>434</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q32" s="36" t="s">
         <v>361</v>
       </c>
@@ -26631,7 +26584,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26645,15 +26598,17 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="P33" s="34"/>
+        <v>435</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q33" s="36" t="s">
         <v>361</v>
       </c>
@@ -26665,7 +26620,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26679,15 +26634,17 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="P34" s="34"/>
+        <v>436</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q34" s="36" t="s">
         <v>361</v>
       </c>
@@ -26699,7 +26656,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26713,13 +26670,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
@@ -26733,7 +26690,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26747,7 +26704,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
@@ -26767,7 +26724,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26781,13 +26738,13 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
@@ -26801,7 +26758,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26815,13 +26772,13 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
@@ -26835,7 +26792,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26849,13 +26806,13 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
@@ -26869,7 +26826,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26883,13 +26840,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
@@ -26903,7 +26860,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26917,13 +26874,13 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
@@ -26937,7 +26894,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26951,7 +26908,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
@@ -26971,7 +26928,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26985,13 +26942,13 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
@@ -27005,7 +26962,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -27019,7 +26976,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
@@ -27039,7 +26996,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -27053,13 +27010,13 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
@@ -27073,7 +27030,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27087,13 +27044,13 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
@@ -27107,7 +27064,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27121,15 +27078,17 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="P47" s="34"/>
+        <v>457</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q47" s="36" t="s">
         <v>361</v>
       </c>
@@ -27141,7 +27100,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27155,15 +27114,17 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="P48" s="34"/>
+        <v>458</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q48" s="36" t="s">
         <v>361</v>
       </c>
@@ -27175,7 +27136,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27189,15 +27150,17 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="P49" s="34"/>
+        <v>459</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q49" s="36" t="s">
         <v>361</v>
       </c>
@@ -27209,7 +27172,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27223,15 +27186,17 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="P50" s="34"/>
+        <v>460</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q50" s="36" t="s">
         <v>361</v>
       </c>
@@ -27243,7 +27208,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27257,21 +27222,23 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="P51" s="34"/>
+        <v>461</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27285,21 +27252,23 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="P52" s="34"/>
+        <v>462</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27313,21 +27282,23 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="P53" s="34"/>
+        <v>468</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27341,21 +27312,23 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="P54" s="34"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27369,21 +27342,23 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="P55" s="34"/>
+        <v>470</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27397,21 +27372,23 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="P56" s="34"/>
+        <v>471</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27425,21 +27402,23 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="P57" s="34"/>
+        <v>472</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27453,21 +27432,23 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="P58" s="34"/>
+        <v>473</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27481,21 +27462,23 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="P59" s="34"/>
+        <v>474</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27509,21 +27492,23 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="P60" s="34"/>
+        <v>475</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27537,21 +27522,23 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="P61" s="34"/>
+        <v>476</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27565,21 +27552,23 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="P62" s="34"/>
+        <v>477</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27593,21 +27582,23 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="P63" s="34"/>
+        <v>478</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27621,7 +27612,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
@@ -27635,7 +27626,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27649,13 +27640,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27663,7 +27654,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27677,7 +27668,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
@@ -27691,7 +27682,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27705,7 +27696,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
@@ -27719,7 +27710,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27733,7 +27724,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
@@ -27747,7 +27738,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27761,7 +27752,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
@@ -27775,7 +27766,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27789,7 +27780,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
@@ -27803,7 +27794,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27817,13 +27808,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27831,7 +27822,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27845,7 +27836,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
@@ -27859,7 +27850,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27873,7 +27864,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
@@ -27887,7 +27878,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27901,7 +27892,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
@@ -27915,7 +27906,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -27929,7 +27920,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
@@ -27943,7 +27934,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -27957,7 +27948,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
@@ -27965,13 +27956,15 @@
       <c r="O76" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="P76" s="34"/>
+      <c r="P76" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -27985,21 +27978,23 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="P77" s="34"/>
+        <v>446</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28013,10 +28008,10 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>383</v>
@@ -28027,7 +28022,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28041,10 +28036,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>374</v>
@@ -28055,7 +28050,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28069,10 +28064,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>386</v>
@@ -28083,7 +28078,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28097,10 +28092,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>387</v>
@@ -28111,7 +28106,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28125,13 +28120,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28139,7 +28134,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28153,10 +28148,10 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>389</v>
@@ -28167,7 +28162,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28181,10 +28176,10 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>390</v>
@@ -28195,7 +28190,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28209,10 +28204,10 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>402</v>
@@ -28223,7 +28218,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28237,21 +28232,23 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>450</v>
-      </c>
-      <c r="P86" s="34"/>
+        <v>448</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28265,7 +28262,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
@@ -28279,7 +28276,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28293,7 +28290,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
@@ -28307,7 +28304,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28321,7 +28318,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
@@ -28335,7 +28332,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28349,7 +28346,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
@@ -28363,7 +28360,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28377,7 +28374,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
@@ -28391,7 +28388,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28405,7 +28402,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
@@ -28419,7 +28416,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28433,7 +28430,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
@@ -28447,7 +28444,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28461,7 +28458,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
@@ -28469,13 +28466,15 @@
       <c r="O94" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="P94" s="34"/>
+      <c r="P94" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28489,7 +28488,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
@@ -28497,13 +28496,15 @@
       <c r="O95" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="P95" s="34"/>
+      <c r="P95" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28517,7 +28518,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
@@ -28525,13 +28526,15 @@
       <c r="O96" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="P96" s="34"/>
+      <c r="P96" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28545,7 +28548,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
@@ -28553,13 +28556,15 @@
       <c r="O97" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="P97" s="34"/>
+      <c r="P97" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28573,7 +28578,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
@@ -28581,13 +28586,15 @@
       <c r="O98" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="P98" s="34"/>
+      <c r="P98" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28601,7 +28608,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
@@ -28609,13 +28616,15 @@
       <c r="O99" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="P99" s="34"/>
+      <c r="P99" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28629,7 +28638,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
@@ -28637,13 +28646,15 @@
       <c r="O100" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="P100" s="34"/>
+      <c r="P100" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28657,7 +28668,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
@@ -28665,13 +28676,15 @@
       <c r="O101" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="P101" s="34"/>
+      <c r="P101" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28685,7 +28698,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
@@ -28693,13 +28706,15 @@
       <c r="O102" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="P102" s="34"/>
+      <c r="P102" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28713,21 +28728,23 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="P103" s="34"/>
+        <v>449</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28741,21 +28758,23 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="P104" s="34"/>
+        <v>450</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28769,13 +28788,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28783,7 +28802,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28797,13 +28816,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28811,7 +28830,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28825,7 +28844,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
@@ -28839,7 +28858,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28853,7 +28872,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
@@ -28867,7 +28886,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28881,13 +28900,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28895,7 +28914,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28909,13 +28928,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28923,7 +28942,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -28937,13 +28956,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -28951,7 +28970,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -28965,21 +28984,23 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="P112" s="34"/>
+        <v>454</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -28993,7 +29014,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
@@ -29001,13 +29022,15 @@
       <c r="O113" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="P113" s="34"/>
+      <c r="P113" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -29021,21 +29044,23 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="P114" s="34"/>
+        <v>455</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29057,7 +29082,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29079,7 +29104,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29101,7 +29126,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29123,7 +29148,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29145,7 +29170,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29167,7 +29192,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29189,7 +29214,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29211,7 +29236,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29233,7 +29258,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29255,7 +29280,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29277,7 +29302,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29299,7 +29324,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29321,7 +29346,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29343,7 +29368,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29365,7 +29390,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29387,7 +29412,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29409,7 +29434,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29431,7 +29456,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29453,7 +29478,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29475,7 +29500,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29497,7 +29522,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29519,7 +29544,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29541,7 +29566,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29563,7 +29588,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29585,7 +29610,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29607,7 +29632,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29629,7 +29654,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29651,7 +29676,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29673,7 +29698,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -29695,7 +29720,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -29726,5 +29751,6 @@
     <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="480">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2220,6 +2220,95 @@
     <t>shop_mtr</t>
   </si>
   <si>
+    <t>section_mtr</t>
+  </si>
+  <si>
+    <t>line_mtr</t>
+  </si>
+  <si>
+    <t>cls_mtr</t>
+  </si>
+  <si>
+    <t>sub_cls_mtr</t>
+  </si>
+  <si>
+    <t>CX_WRN_SUB</t>
+  </si>
+  <si>
+    <t>CX_WRN_MAIN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Working fine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> But date issue has come.so I have commented the below line in the project
+DtView1(0)("input_date")</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">no ini found(DB from web.config) </t>
+  </si>
+  <si>
+    <t>.Import Document Need tocheck functionality</t>
+  </si>
+  <si>
+    <t>Missing SP</t>
+  </si>
+  <si>
+    <t>Missing Table</t>
+  </si>
+  <si>
+    <t>sp_err_list</t>
+  </si>
+  <si>
+    <t>sp_soukatsu_list</t>
+  </si>
+  <si>
+    <t>sp_soukatsu_list_2</t>
+  </si>
+  <si>
+    <t>sp_anshin_list</t>
+  </si>
+  <si>
+    <t>sp_anshin_list_2</t>
+  </si>
+  <si>
+    <t>sp_CX_list</t>
+  </si>
+  <si>
+    <t>sp_err_list2</t>
+  </si>
+  <si>
+    <t>sp_Shop_mtr</t>
+  </si>
+  <si>
+    <t>sp_vdr_mtr</t>
+  </si>
+  <si>
+    <t>sp_item_mtr</t>
+  </si>
+  <si>
+    <t>sp_section_mtr</t>
+  </si>
+  <si>
+    <t>Import Document Need tocheck functionality</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The following tables are missing:
 </t>
@@ -2255,10 +2344,11 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>sp_err_list,sp_soukatsu_list,sp_soukatsu_list_2,
+      <t xml:space="preserve">sp_err_list,sp_soukatsu_list,sp_soukatsu_list_2,
 sp_anshin_list,sp_anshin_list_2,sp_CX_list,
 sp_err_list2,sp_Shop_mtr,sp_vdr_mtr,
-sp_item_mtr,sp_section_mtr</t>
+sp_item_mtr,sp_section_mtr
+</t>
     </r>
     <r>
       <rPr>
@@ -2270,36 +2360,16 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>section_mtr</t>
-  </si>
-  <si>
-    <t>line_mtr</t>
-  </si>
-  <si>
-    <t>cls_mtr</t>
-  </si>
-  <si>
-    <t>sub_cls_mtr</t>
-  </si>
-  <si>
-    <t>CX_WRN_SUB</t>
-  </si>
-  <si>
-    <t>CX_WRN_MAIN</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>Working fine.</t>
+      <t>Homac長期安心保証データ.xls</t>
     </r>
     <r>
       <rPr>
@@ -2308,54 +2378,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> But date issue has come.so I have commented the below line in the project
-DtView1(0)("input_date")</t>
+      <t xml:space="preserve"> is missing</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">no ini found(DB from web.config) </t>
-  </si>
-  <si>
-    <t>.Import Document Need tocheck functionality</t>
-  </si>
-  <si>
-    <t>Missing SP</t>
-  </si>
-  <si>
-    <t>Missing Table</t>
-  </si>
-  <si>
-    <t>sp_err_list</t>
-  </si>
-  <si>
-    <t>sp_soukatsu_list</t>
-  </si>
-  <si>
-    <t>sp_soukatsu_list_2</t>
-  </si>
-  <si>
-    <t>sp_anshin_list</t>
-  </si>
-  <si>
-    <t>sp_anshin_list_2</t>
-  </si>
-  <si>
-    <t>sp_CX_list</t>
-  </si>
-  <si>
-    <t>sp_err_list2</t>
-  </si>
-  <si>
-    <t>sp_Shop_mtr</t>
-  </si>
-  <si>
-    <t>sp_vdr_mtr</t>
-  </si>
-  <si>
-    <t>sp_item_mtr</t>
-  </si>
-  <si>
-    <t>sp_section_mtr</t>
   </si>
 </sst>
 </file>
@@ -2798,10 +2822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2810,16 +2834,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2869,9 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3209,7 +3233,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3223,11 +3247,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3235,19 +3259,19 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3255,15 +3279,15 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3275,7 +3299,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -3287,7 +3311,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3299,7 +3323,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -3311,7 +3335,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -3323,7 +3347,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -3335,7 +3359,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3349,7 +3373,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3361,7 +3385,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -3373,7 +3397,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3385,7 +3409,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3397,7 +3421,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3433,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -3421,7 +3445,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3433,7 +3457,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -3445,7 +3469,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -3457,7 +3481,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3469,7 +3493,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3481,7 +3505,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3493,7 +3517,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -3505,7 +3529,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3517,7 +3541,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3529,7 +3553,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3541,7 +3565,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3553,7 +3577,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3565,7 +3589,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3601,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3589,7 +3613,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3601,7 +3625,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -3613,7 +3637,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3625,7 +3649,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3637,7 +3661,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3649,7 +3673,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3661,7 +3685,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3673,7 +3697,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -3685,7 +3709,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3697,7 +3721,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -3709,7 +3733,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3721,7 +3745,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -3733,7 +3757,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3745,7 +3769,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -3757,7 +3781,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -3769,7 +3793,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3783,7 +3807,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3819,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3807,7 +3831,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3819,7 +3843,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -3831,7 +3855,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3843,7 +3867,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -3855,7 +3879,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3867,7 +3891,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3879,7 +3903,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3891,7 +3915,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -3903,7 +3927,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3915,7 +3939,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3929,7 +3953,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -3941,7 +3965,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3953,7 +3977,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3967,7 +3991,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -3979,7 +4003,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -3991,7 +4015,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4005,11 +4029,11 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4017,15 +4041,15 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="47"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="47"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -4037,11 +4061,11 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4049,15 +4073,15 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="47"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -4069,7 +4093,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="47"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -4081,7 +4105,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="48" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4095,11 +4119,11 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48" t="s">
+      <c r="A76" s="48"/>
+      <c r="B76" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4107,19 +4131,19 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="47"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4127,15 +4151,15 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="47"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -4147,7 +4171,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -4159,7 +4183,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4173,7 +4197,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
         <v>18</v>
       </c>
@@ -4185,7 +4209,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50"/>
       <c r="D84" s="3" t="s">
@@ -4193,7 +4217,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -4205,7 +4229,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -4223,6 +4247,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4231,20 +4269,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4294,7 +4318,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4309,11 +4333,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="48" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -4322,20 +4346,20 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="51" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -4344,16 +4368,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -4366,7 +4390,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -4381,7 +4405,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -4396,7 +4420,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -4409,7 +4433,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -4422,7 +4446,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -4435,7 +4459,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4450,7 +4474,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4463,7 +4487,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -4476,7 +4500,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -4489,7 +4513,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -4502,7 +4526,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -4515,7 +4539,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -4528,7 +4552,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -4541,7 +4565,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -4554,7 +4578,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -4567,7 +4591,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -4580,7 +4604,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -4593,7 +4617,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -4606,7 +4630,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -4619,7 +4643,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -4632,7 +4656,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -4645,7 +4669,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4658,7 +4682,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -4671,7 +4695,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -4684,7 +4708,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -4697,7 +4721,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -4710,7 +4734,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -4723,7 +4747,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -4736,7 +4760,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -4749,7 +4773,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -4762,7 +4786,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -4775,7 +4799,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -4788,7 +4812,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -4801,7 +4825,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -4814,7 +4838,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -4829,7 +4853,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -4844,7 +4868,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -4859,7 +4883,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -4872,7 +4896,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -4885,7 +4909,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -4898,7 +4922,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4911,7 +4935,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="48" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4926,7 +4950,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -4939,7 +4963,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -4952,7 +4976,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -4965,7 +4989,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -4978,7 +5002,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -4991,7 +5015,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -5004,7 +5028,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -5017,7 +5041,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -5032,7 +5056,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -5045,7 +5069,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -5060,7 +5084,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -5073,7 +5097,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="48" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -5088,7 +5112,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -5101,7 +5125,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -5114,7 +5138,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="48" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5129,7 +5153,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -5142,7 +5166,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -5155,7 +5179,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="48" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5170,11 +5194,11 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="47"/>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="48" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5183,16 +5207,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="47"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="48"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="47"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -5205,11 +5229,11 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5218,16 +5242,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="47"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -5240,7 +5264,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="47"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -5253,7 +5277,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -5268,11 +5292,11 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="47"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="48"/>
+      <c r="B76" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="48" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5281,20 +5305,20 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="47"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="48"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5303,16 +5327,16 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="47"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -5325,7 +5349,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -5338,7 +5362,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5353,7 +5377,7 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="49" t="s">
         <v>189</v>
       </c>
@@ -5366,7 +5390,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50"/>
       <c r="D84" s="12"/>
@@ -5375,7 +5399,7 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -5388,7 +5412,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -5423,6 +5447,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5439,12 +5469,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5486,7 +5510,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5497,7 +5521,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -5506,7 +5530,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -5515,7 +5539,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -5622,7 +5646,7 @@
       </c>
     </row>
     <row r="2" spans="1:15232" ht="27">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5645,7 +5669,7 @@
       </c>
     </row>
     <row r="3" spans="1:15232" ht="54">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -5666,7 +5690,7 @@
       </c>
     </row>
     <row r="4" spans="1:15232">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5679,7 +5703,7 @@
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:15232">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -5700,7 +5724,7 @@
       </c>
     </row>
     <row r="6" spans="1:15232">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5713,7 +5737,7 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:15232">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -5732,7 +5756,7 @@
       </c>
     </row>
     <row r="8" spans="1:15232" ht="27">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -5751,7 +5775,7 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:15232">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -5770,7 +5794,7 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:15232">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -5787,7 +5811,7 @@
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:15232">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -5804,7 +5828,7 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:15232">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -5841,7 +5865,7 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:15232" s="15" customFormat="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -21085,7 +21109,7 @@
       <c r="VMV15" s="18"/>
     </row>
     <row r="16" spans="1:15232">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -21106,7 +21130,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -21127,7 +21151,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -21148,7 +21172,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -21167,7 +21191,7 @@
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" s="18" customFormat="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -21188,7 +21212,7 @@
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -21209,7 +21233,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -21230,7 +21254,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -21251,7 +21275,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -21272,7 +21296,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -21293,7 +21317,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -21314,7 +21338,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -21335,7 +21359,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -21354,7 +21378,7 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -21375,7 +21399,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -21396,7 +21420,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -21417,7 +21441,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -21438,7 +21462,7 @@
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -21459,7 +21483,7 @@
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -21480,7 +21504,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -21501,7 +21525,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -21522,7 +21546,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -21543,7 +21567,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -21566,7 +21590,7 @@
       <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -21589,7 +21613,7 @@
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -21612,7 +21636,7 @@
       <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -21635,7 +21659,7 @@
       <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -21658,7 +21682,7 @@
       <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -21679,7 +21703,7 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="18" customFormat="1">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -21698,7 +21722,7 @@
       <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" s="18" customFormat="1">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -21717,7 +21741,7 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -21736,7 +21760,7 @@
       <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" s="18" customFormat="1">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -21753,7 +21777,7 @@
       <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" s="18" customFormat="1">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -21770,7 +21794,7 @@
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" s="18" customFormat="1">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -21787,7 +21811,7 @@
       <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" s="18" customFormat="1">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -21826,7 +21850,7 @@
       <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" s="18" customFormat="1">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -21845,7 +21869,7 @@
       <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" s="18" customFormat="1">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -21862,7 +21886,7 @@
       <c r="I54" s="28"/>
     </row>
     <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -21883,7 +21907,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="18" customFormat="1">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -21900,7 +21924,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" s="18" customFormat="1">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -21917,7 +21941,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" s="18" customFormat="1">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -21934,7 +21958,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" s="18" customFormat="1">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -21951,7 +21975,7 @@
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" s="18" customFormat="1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -21968,7 +21992,7 @@
       <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" s="18" customFormat="1">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -21987,7 +22011,7 @@
       <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" s="18" customFormat="1">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -22004,7 +22028,7 @@
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" s="18" customFormat="1">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -22023,7 +22047,7 @@
       <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1">
-      <c r="A64" s="47"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -22062,7 +22086,7 @@
       <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="57" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -22085,7 +22109,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A68" s="56"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -22106,7 +22130,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" s="18" customFormat="1">
-      <c r="A69" s="56"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -22145,7 +22169,7 @@
       <c r="I71" s="28"/>
     </row>
     <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="57" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -22168,7 +22192,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A73" s="56"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -22189,7 +22213,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1">
-      <c r="A74" s="56"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -22228,7 +22252,7 @@
       <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="48" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -22251,7 +22275,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A78" s="47"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -22272,7 +22296,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" s="18" customFormat="1">
-      <c r="A79" s="47"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -22285,7 +22309,7 @@
       <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" s="18" customFormat="1">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -22306,7 +22330,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" s="18" customFormat="1">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -22327,7 +22351,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" s="18" customFormat="1">
-      <c r="A82" s="47"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -22340,7 +22364,7 @@
       <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -22361,7 +22385,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" s="18" customFormat="1">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -22400,7 +22424,7 @@
       <c r="I86" s="28"/>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -22423,7 +22447,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -22444,7 +22468,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1">
-      <c r="A89" s="47"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -22457,7 +22481,7 @@
       <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A90" s="47"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -22478,7 +22502,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="18" customFormat="1">
-      <c r="A91" s="47"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -22491,7 +22515,7 @@
       <c r="I91" s="28"/>
     </row>
     <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A92" s="47"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -22512,7 +22536,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" s="18" customFormat="1">
-      <c r="A93" s="47"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -22551,7 +22575,7 @@
       <c r="I95" s="28"/>
     </row>
     <row r="96" spans="1:9" s="18" customFormat="1">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -22574,7 +22598,7 @@
       <c r="I96" s="28"/>
     </row>
     <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -22595,7 +22619,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="18" customFormat="1">
-      <c r="A98" s="47"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22608,7 +22632,7 @@
       <c r="I98" s="28"/>
     </row>
     <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -22629,7 +22653,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" s="18" customFormat="1">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -23085,10 +23109,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23136,7 +23161,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -23163,12 +23188,12 @@
       <c r="I2" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="71" t="s">
-        <v>465</v>
+      <c r="J2" s="47" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -23198,7 +23223,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
@@ -23227,8 +23252,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5" s="48" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -23251,8 +23276,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:10" hidden="1">
+      <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
       </c>
@@ -23279,8 +23304,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
       </c>
@@ -23307,8 +23332,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:10" hidden="1">
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
       </c>
@@ -23335,8 +23360,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:10" hidden="1">
+      <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
       </c>
@@ -23357,8 +23382,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
       </c>
@@ -23385,8 +23410,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:10" hidden="1">
+      <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
       </c>
@@ -23413,8 +23438,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:10" hidden="1">
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
       </c>
@@ -23441,8 +23466,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:10" hidden="1">
+      <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
@@ -23469,8 +23494,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:10" hidden="1">
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
       </c>
@@ -23497,8 +23522,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:10" hidden="1">
+      <c r="A15" s="48"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
       </c>
@@ -23525,8 +23550,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:10" hidden="1">
+      <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
       </c>
@@ -23553,8 +23578,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:10" hidden="1">
+      <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
       </c>
@@ -23581,8 +23606,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:10" hidden="1">
+      <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
       </c>
@@ -23601,8 +23626,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:10" hidden="1">
+      <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
       </c>
@@ -23629,8 +23654,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:10" hidden="1">
+      <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
       </c>
@@ -23657,8 +23682,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:10" hidden="1">
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
       </c>
@@ -23685,8 +23710,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:10" hidden="1">
+      <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
       </c>
@@ -23714,7 +23739,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="27">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
       </c>
@@ -23743,8 +23768,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:10" hidden="1">
+      <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
       </c>
@@ -23771,8 +23796,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:10" hidden="1">
+      <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
       </c>
@@ -23799,8 +23824,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="47"/>
+    <row r="26" spans="1:10" hidden="1">
+      <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
       </c>
@@ -23827,8 +23852,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+      <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
       </c>
@@ -23855,8 +23880,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:10" hidden="1">
+      <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
       </c>
@@ -23885,8 +23910,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:10" hidden="1">
+      <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
       </c>
@@ -23915,8 +23940,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:10" hidden="1">
+      <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
       </c>
@@ -23945,8 +23970,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:10" hidden="1">
+      <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
       </c>
@@ -23975,8 +24000,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:10" hidden="1">
+      <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
       </c>
@@ -24005,8 +24030,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:10" hidden="1">
+      <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
       </c>
@@ -24035,8 +24060,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:10" hidden="1">
+      <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
       </c>
@@ -24065,8 +24090,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:10" hidden="1">
+      <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
       </c>
@@ -24095,8 +24120,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:10" hidden="1">
+      <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
       </c>
@@ -24125,8 +24150,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:10" hidden="1">
+      <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
       </c>
@@ -24155,8 +24180,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:10" hidden="1">
+      <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -24185,8 +24210,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:10" hidden="1">
+      <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -24216,7 +24241,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="27">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
       </c>
@@ -24224,7 +24249,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24245,8 +24270,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="47" t="s">
+    <row r="41" spans="1:10" hidden="1">
+      <c r="A41" s="48" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -24267,8 +24292,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="47"/>
+    <row r="42" spans="1:10" hidden="1">
+      <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
       </c>
@@ -24283,8 +24308,8 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="47"/>
+    <row r="43" spans="1:10" hidden="1">
+      <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
       </c>
@@ -24299,8 +24324,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="47"/>
+    <row r="44" spans="1:10" hidden="1">
+      <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
       </c>
@@ -24315,8 +24340,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:10" hidden="1">
+      <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
       </c>
@@ -24331,8 +24356,8 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="47"/>
+    <row r="46" spans="1:10" hidden="1">
+      <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
       </c>
@@ -24347,8 +24372,8 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="47"/>
+    <row r="47" spans="1:10" hidden="1">
+      <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
       </c>
@@ -24363,8 +24388,8 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:10" hidden="1">
+      <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
       </c>
@@ -24379,8 +24404,8 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="47" t="s">
+    <row r="49" spans="1:10" hidden="1">
+      <c r="A49" s="48" t="s">
         <v>176</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -24411,8 +24436,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="47"/>
+    <row r="50" spans="1:10" hidden="1">
+      <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
       </c>
@@ -24441,8 +24466,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="47" t="s">
+    <row r="51" spans="1:10" hidden="1">
+      <c r="A51" s="48" t="s">
         <v>168</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -24473,8 +24498,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="47"/>
+    <row r="52" spans="1:10" hidden="1">
+      <c r="A52" s="48"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
       </c>
@@ -24503,8 +24528,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="81">
-      <c r="A53" s="47" t="s">
+    <row r="53" spans="1:10" ht="81" hidden="1">
+      <c r="A53" s="48" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -24535,8 +24560,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="47"/>
+    <row r="54" spans="1:10" hidden="1">
+      <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
       </c>
@@ -24565,8 +24590,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="47"/>
+    <row r="55" spans="1:10" hidden="1">
+      <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
       </c>
@@ -24595,8 +24620,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="47"/>
+    <row r="56" spans="1:10" hidden="1">
+      <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
       </c>
@@ -24625,8 +24650,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:10" hidden="1">
+      <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
       </c>
@@ -24656,7 +24681,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="27">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="48" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -24688,7 +24713,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="40.5">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
       </c>
@@ -24718,7 +24743,7 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
       </c>
@@ -24748,7 +24773,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
       </c>
@@ -24778,7 +24803,7 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="21" t="s">
@@ -24806,11 +24831,11 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="40.5">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
       </c>
@@ -24836,11 +24861,11 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="135">
-      <c r="A64" s="47"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="148.5">
+      <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
       </c>
@@ -24866,11 +24891,17 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64"/>
+  <autoFilter ref="A1:J64">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Bharathi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24924,7 +24955,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -24935,7 +24966,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -25010,7 +25041,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="54" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25021,7 +25052,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25074,7 +25105,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="59" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="45" t="s">
@@ -25085,7 +25116,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
       </c>
@@ -25094,7 +25125,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
       </c>
@@ -25103,7 +25134,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
       </c>
@@ -25112,7 +25143,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
       </c>
@@ -25121,7 +25152,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
       </c>
@@ -25130,7 +25161,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
       </c>
@@ -25139,7 +25170,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -25148,7 +25179,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -25157,7 +25188,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
       </c>
@@ -25188,7 +25219,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>166</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -25199,7 +25230,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="58"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
       </c>
@@ -25256,7 +25287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
+    <sheetView topLeftCell="L40" workbookViewId="0">
       <selection activeCell="O118" sqref="O118"/>
     </sheetView>
   </sheetViews>
@@ -25285,36 +25316,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="59" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="66" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69" t="s">
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
@@ -26391,7 +26422,7 @@
         <v>431</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q27" s="36" t="s">
         <v>361</v>
@@ -26427,7 +26458,7 @@
         <v>427</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="36" t="s">
         <v>361</v>
@@ -26463,7 +26494,7 @@
         <v>432</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="36" t="s">
         <v>361</v>
@@ -26499,7 +26530,7 @@
         <v>408</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="36" t="s">
         <v>361</v>
@@ -26535,7 +26566,7 @@
         <v>433</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="36" t="s">
         <v>361</v>
@@ -26571,7 +26602,7 @@
         <v>434</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q32" s="36" t="s">
         <v>361</v>
@@ -26607,7 +26638,7 @@
         <v>435</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q33" s="36" t="s">
         <v>361</v>
@@ -26643,7 +26674,7 @@
         <v>436</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q34" s="36" t="s">
         <v>361</v>
@@ -27084,10 +27115,10 @@
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q47" s="36" t="s">
         <v>361</v>
@@ -27120,10 +27151,10 @@
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q48" s="36" t="s">
         <v>361</v>
@@ -27156,10 +27187,10 @@
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q49" s="36" t="s">
         <v>361</v>
@@ -27192,10 +27223,10 @@
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q50" s="36" t="s">
         <v>361</v>
@@ -27228,10 +27259,10 @@
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -27258,10 +27289,10 @@
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -27288,10 +27319,10 @@
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -27318,10 +27349,10 @@
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -27348,10 +27379,10 @@
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -27378,10 +27409,10 @@
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -27408,10 +27439,10 @@
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -27438,10 +27469,10 @@
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -27468,10 +27499,10 @@
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -27498,10 +27529,10 @@
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -27528,10 +27559,10 @@
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -27558,10 +27589,10 @@
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -27588,10 +27619,10 @@
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -27957,7 +27988,7 @@
         <v>408</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -27987,7 +28018,7 @@
         <v>446</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -28241,7 +28272,7 @@
         <v>448</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -28467,7 +28498,7 @@
         <v>391</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -28497,7 +28528,7 @@
         <v>400</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -28527,7 +28558,7 @@
         <v>399</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -28557,7 +28588,7 @@
         <v>398</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -28587,7 +28618,7 @@
         <v>397</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -28617,7 +28648,7 @@
         <v>396</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -28647,7 +28678,7 @@
         <v>395</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -28677,7 +28708,7 @@
         <v>394</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -28707,7 +28738,7 @@
         <v>393</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -28737,7 +28768,7 @@
         <v>449</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -28767,7 +28798,7 @@
         <v>450</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -28993,7 +29024,7 @@
         <v>454</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -29023,7 +29054,7 @@
         <v>362</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -29053,7 +29084,7 @@
         <v>455</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="479">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1492,29 +1492,6 @@
   </si>
   <si>
     <t>Import Document Need, Code changes done</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>wrn_date,ivc_data,shop_mtr table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  
-is missing in  given sp 'sp_search'</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2212,9 +2189,6 @@
   </si>
   <si>
     <t>sp_search(sp)</t>
-  </si>
-  <si>
-    <t>wrn_date</t>
   </si>
   <si>
     <t>shop_mtr</t>
@@ -2379,6 +2353,29 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> is missing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>wrn_data,ivc_data,shop_mtr table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  
+is missing in  given sp 'sp_search'</t>
     </r>
   </si>
 </sst>
@@ -2828,25 +2825,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -4030,10 +4027,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="48"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4042,8 +4039,8 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="48"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -4062,10 +4059,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="48"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4074,8 +4071,8 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -4120,10 +4117,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="48"/>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4132,18 +4129,18 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="48"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="48"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4152,8 +4149,8 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -4198,10 +4195,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="48"/>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4210,8 +4207,8 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="48"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4247,12 +4244,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4261,14 +4260,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="48"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -4347,7 +4344,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="48"/>
-      <c r="B4" s="55"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="48"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4356,7 +4353,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="48"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="48" t="s">
@@ -4369,7 +4366,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="48"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="48"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -5195,10 +5192,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="48"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5208,8 +5205,8 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="48"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5230,10 +5227,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="48"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5243,8 +5240,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5293,10 +5290,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="48"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5306,8 +5303,8 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="48"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5315,10 +5312,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="48"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5328,8 +5325,8 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5378,10 +5375,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="48"/>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5391,8 +5388,8 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="48"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -5447,12 +5444,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5469,6 +5460,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -23112,8 +23109,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23148,7 +23145,7 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>320</v>
@@ -23171,7 +23168,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23186,10 +23183,10 @@
         <v>322</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
@@ -23201,7 +23198,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23216,10 +23213,10 @@
         <v>322</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23231,7 +23228,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23246,10 +23243,10 @@
         <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1">
@@ -23267,13 +23264,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:10" hidden="1">
@@ -23288,20 +23285,20 @@
         <v>302</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1">
@@ -23323,13 +23320,13 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1">
@@ -23351,13 +23348,13 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
@@ -23373,13 +23370,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
@@ -23401,13 +23398,13 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:10" hidden="1">
@@ -23422,20 +23419,20 @@
         <v>302</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1">
@@ -23450,20 +23447,20 @@
         <v>302</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1">
@@ -23485,13 +23482,13 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1">
@@ -23513,13 +23510,13 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1">
@@ -23541,13 +23538,13 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1">
@@ -23569,13 +23566,13 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1">
@@ -23597,13 +23594,13 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1">
@@ -23617,13 +23614,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1">
@@ -23635,23 +23632,23 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
@@ -23663,23 +23660,23 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1">
@@ -23701,13 +23698,13 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:10" hidden="1">
@@ -23729,13 +23726,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J22" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27">
@@ -23765,7 +23762,7 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
@@ -23777,23 +23774,23 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E24" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:10" hidden="1">
@@ -23805,23 +23802,23 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1">
@@ -23843,13 +23840,13 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
@@ -23861,23 +23858,23 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1">
@@ -23898,7 +23895,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>323</v>
@@ -23907,7 +23904,7 @@
         <v>325</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1">
@@ -23937,7 +23934,7 @@
         <v>325</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:10" hidden="1">
@@ -23958,7 +23955,7 @@
         <v>304</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>323</v>
@@ -23967,7 +23964,7 @@
         <v>325</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1">
@@ -23988,7 +23985,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>323</v>
@@ -23997,7 +23994,7 @@
         <v>325</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1">
@@ -24018,7 +24015,7 @@
         <v>308</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
@@ -24027,7 +24024,7 @@
         <v>325</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1">
@@ -24048,7 +24045,7 @@
         <v>295</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>323</v>
@@ -24057,7 +24054,7 @@
         <v>325</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1">
@@ -24078,7 +24075,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>323</v>
@@ -24087,7 +24084,7 @@
         <v>325</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:10" hidden="1">
@@ -24108,7 +24105,7 @@
         <v>295</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>323</v>
@@ -24117,7 +24114,7 @@
         <v>325</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1">
@@ -24147,7 +24144,7 @@
         <v>325</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1">
@@ -24168,7 +24165,7 @@
         <v>304</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>323</v>
@@ -24177,7 +24174,7 @@
         <v>325</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:10" hidden="1">
@@ -24198,7 +24195,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>323</v>
@@ -24207,7 +24204,7 @@
         <v>325</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:10" hidden="1">
@@ -24228,7 +24225,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>323</v>
@@ -24237,7 +24234,7 @@
         <v>325</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27">
@@ -24249,7 +24246,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24267,7 +24264,7 @@
         <v>325</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1">
@@ -24289,7 +24286,7 @@
         <v>325</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1">
@@ -24433,7 +24430,7 @@
         <v>325</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1">
@@ -24463,7 +24460,7 @@
         <v>325</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:10" hidden="1">
@@ -24522,10 +24519,10 @@
         <v>323</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>335</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="81" hidden="1">
@@ -24539,16 +24536,16 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>321</v>
@@ -24557,7 +24554,7 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1">
@@ -24569,25 +24566,25 @@
         <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1">
@@ -24599,25 +24596,25 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:10" hidden="1">
@@ -24629,25 +24626,25 @@
         <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1">
@@ -24659,25 +24656,25 @@
         <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="27">
@@ -24700,7 +24697,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24709,7 +24706,7 @@
         <v>325</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="40.5">
@@ -24739,7 +24736,7 @@
         <v>325</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -24760,7 +24757,7 @@
         <v>318</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>322</v>
@@ -24769,7 +24766,7 @@
         <v>325</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -24799,7 +24796,7 @@
         <v>325</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -24831,7 +24828,7 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="40.5">
@@ -24852,7 +24849,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24861,7 +24858,7 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="148.5">
@@ -24882,7 +24879,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24891,7 +24888,7 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -25041,7 +25038,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25052,7 +25049,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="55"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25112,7 +25109,7 @@
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -25287,8 +25284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView topLeftCell="L40" workbookViewId="0">
-      <selection activeCell="O118" sqref="O118"/>
+    <sheetView tabSelected="1" topLeftCell="L100" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25317,19 +25314,19 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="63"/>
       <c r="E1" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="66"/>
       <c r="I1" s="60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
@@ -25349,61 +25346,61 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>359</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>360</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>359</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>360</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>359</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>360</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>359</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>360</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
@@ -25411,21 +25408,21 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -25433,43 +25430,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>361</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25477,43 +25474,43 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -25521,43 +25518,43 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -25565,43 +25562,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -25609,43 +25606,43 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -25653,43 +25650,43 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -25697,43 +25694,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>361</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>362</v>
       </c>
       <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -25741,43 +25738,43 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -25785,43 +25782,43 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -25829,43 +25826,43 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -25873,43 +25870,43 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T13" s="36"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -25917,43 +25914,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -25961,43 +25958,43 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -26005,43 +26002,43 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -26049,23 +26046,23 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T17" s="36"/>
     </row>
@@ -26076,10 +26073,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -26087,23 +26084,23 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T18" s="36"/>
     </row>
@@ -26114,10 +26111,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26125,23 +26122,23 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T19" s="36"/>
     </row>
@@ -26152,10 +26149,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26163,23 +26160,23 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T20" s="36"/>
     </row>
@@ -26190,10 +26187,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26201,23 +26198,23 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T21" s="36"/>
     </row>
@@ -26228,10 +26225,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26239,23 +26236,23 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T22" s="36"/>
     </row>
@@ -26266,10 +26263,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26277,23 +26274,23 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T23" s="36"/>
     </row>
@@ -26311,23 +26308,23 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T24" s="36"/>
     </row>
@@ -26345,23 +26342,23 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T25" s="36"/>
     </row>
@@ -26379,23 +26376,23 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T26" s="36"/>
     </row>
@@ -26413,25 +26410,25 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q27" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T27" s="36"/>
     </row>
@@ -26449,25 +26446,25 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T28" s="36"/>
     </row>
@@ -26485,25 +26482,25 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T29" s="36"/>
     </row>
@@ -26521,25 +26518,25 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T30" s="36"/>
     </row>
@@ -26557,25 +26554,25 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T31" s="36"/>
     </row>
@@ -26593,25 +26590,25 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T32" s="36"/>
     </row>
@@ -26629,25 +26626,25 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T33" s="36"/>
     </row>
@@ -26665,25 +26662,25 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T34" s="36"/>
     </row>
@@ -26701,23 +26698,23 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T35" s="36"/>
     </row>
@@ -26735,23 +26732,23 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T36" s="36"/>
     </row>
@@ -26769,23 +26766,23 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T37" s="36"/>
     </row>
@@ -26803,23 +26800,23 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T38" s="36"/>
     </row>
@@ -26837,23 +26834,23 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T39" s="36"/>
     </row>
@@ -26871,23 +26868,23 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T40" s="36"/>
     </row>
@@ -26905,23 +26902,23 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T41" s="36"/>
     </row>
@@ -26939,23 +26936,23 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T42" s="36"/>
     </row>
@@ -26973,23 +26970,23 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T43" s="36"/>
     </row>
@@ -27007,23 +27004,23 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T44" s="36"/>
     </row>
@@ -27041,23 +27038,23 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T45" s="36"/>
     </row>
@@ -27075,23 +27072,23 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T46" s="36"/>
     </row>
@@ -27109,25 +27106,25 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q47" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T47" s="36"/>
     </row>
@@ -27145,25 +27142,25 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T48" s="36"/>
     </row>
@@ -27181,25 +27178,25 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q49" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T49" s="36"/>
     </row>
@@ -27217,25 +27214,25 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q50" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T50" s="36"/>
     </row>
@@ -27253,16 +27250,16 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -27283,16 +27280,16 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -27313,16 +27310,16 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -27343,16 +27340,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -27373,16 +27370,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -27403,16 +27400,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -27433,16 +27430,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -27463,16 +27460,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -27493,16 +27490,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -27523,16 +27520,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -27553,16 +27550,16 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -27583,16 +27580,16 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -27613,16 +27610,16 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -27643,13 +27640,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -27671,13 +27668,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27699,13 +27696,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -27727,13 +27724,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -27755,13 +27752,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27783,13 +27780,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -27811,13 +27808,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -27839,13 +27836,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27867,13 +27864,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -27895,13 +27892,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -27923,13 +27920,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -27951,13 +27948,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -27979,16 +27976,16 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -28009,16 +28006,16 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -28039,13 +28036,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -28067,13 +28064,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -28095,13 +28092,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -28123,13 +28120,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -28151,13 +28148,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28179,13 +28176,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -28207,13 +28204,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -28235,13 +28232,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -28263,16 +28260,16 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="O86" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="O86" s="34" t="s">
-        <v>448</v>
-      </c>
       <c r="P86" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -28293,13 +28290,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -28321,13 +28318,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -28349,13 +28346,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -28377,13 +28374,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -28405,13 +28402,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -28433,13 +28430,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -28461,13 +28458,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -28489,16 +28486,16 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -28519,16 +28516,16 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -28549,16 +28546,16 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -28579,16 +28576,16 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -28609,16 +28606,16 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -28639,16 +28636,16 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -28669,16 +28666,16 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -28699,16 +28696,16 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -28729,16 +28726,16 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -28759,16 +28756,16 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -28789,16 +28786,16 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -28819,13 +28816,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28847,13 +28844,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28875,13 +28872,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -28903,13 +28900,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -28931,13 +28928,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28959,13 +28956,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28987,13 +28984,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -29015,16 +29012,16 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="34" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -29045,16 +29042,16 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -29075,16 +29072,16 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="479">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2365,7 +2365,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>wrn_data,ivc_data,shop_mtr table</t>
+      <t xml:space="preserve">ivc_data </t>
     </r>
     <r>
       <rPr>
@@ -2374,7 +2374,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">  
+      <t>table  
 is missing in  given sp 'sp_search'</t>
     </r>
   </si>
@@ -2825,25 +2825,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -4027,10 +4027,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="48"/>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4039,8 +4039,8 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -4059,10 +4059,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4071,8 +4071,8 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -4117,10 +4117,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="48"/>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4129,18 +4129,18 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4149,8 +4149,8 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -4195,10 +4195,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4207,8 +4207,8 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4244,6 +4244,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4252,20 +4266,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="48"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -4344,7 +4344,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="48"/>
-      <c r="B4" s="53"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="48"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4353,7 +4353,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="48"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="48" t="s">
@@ -4366,7 +4366,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="48"/>
-      <c r="B6" s="53"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="48"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -5192,10 +5192,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="48"/>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5205,8 +5205,8 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="48"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5240,8 +5240,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="48"/>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5303,8 +5303,8 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="48"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5325,8 +5325,8 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5388,8 +5388,8 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -5444,6 +5444,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5460,12 +5466,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -23109,7 +23109,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -25038,7 +25038,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25049,7 +25049,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25284,8 +25284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L100" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29017,12 +29017,10 @@
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O112" s="34" t="s">
+      <c r="O112" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -29077,12 +29075,10 @@
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="O114" s="34" t="s">
+      <c r="O114" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="P114" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="478">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2242,9 +2242,6 @@
   </si>
   <si>
     <t>Missing SP</t>
-  </si>
-  <si>
-    <t>Missing Table</t>
   </si>
   <si>
     <t>sp_err_list</t>
@@ -23109,7 +23106,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -23186,7 +23183,7 @@
         <v>334</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
@@ -24264,7 +24261,7 @@
         <v>325</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1">
@@ -24888,7 +24885,7 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -25284,8 +25281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="P118" sqref="P118"/>
+    <sheetView topLeftCell="L19" workbookViewId="0">
+      <selection activeCell="P113" sqref="P113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -26418,9 +26415,7 @@
       <c r="O27" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
         <v>360</v>
       </c>
@@ -26454,9 +26449,7 @@
       <c r="O28" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
         <v>360</v>
       </c>
@@ -26490,9 +26483,7 @@
       <c r="O29" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
         <v>360</v>
       </c>
@@ -26526,9 +26517,7 @@
       <c r="O30" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
         <v>360</v>
       </c>
@@ -26562,9 +26551,7 @@
       <c r="O31" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
         <v>360</v>
       </c>
@@ -26598,9 +26585,7 @@
       <c r="O32" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
         <v>360</v>
       </c>
@@ -27114,9 +27099,7 @@
       <c r="O47" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
         <v>360</v>
       </c>
@@ -27150,9 +27133,7 @@
       <c r="O48" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
         <v>360</v>
       </c>
@@ -27186,9 +27167,7 @@
       <c r="O49" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
         <v>360</v>
       </c>
@@ -27222,9 +27201,7 @@
       <c r="O50" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
         <v>360</v>
       </c>
@@ -27258,9 +27235,7 @@
       <c r="O51" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -27288,9 +27263,7 @@
       <c r="O52" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -27316,7 +27289,7 @@
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>463</v>
@@ -27346,7 +27319,7 @@
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>463</v>
@@ -27376,7 +27349,7 @@
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>463</v>
@@ -27406,7 +27379,7 @@
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>463</v>
@@ -27436,7 +27409,7 @@
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>463</v>
@@ -27466,7 +27439,7 @@
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>463</v>
@@ -27496,7 +27469,7 @@
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>463</v>
@@ -27526,7 +27499,7 @@
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>463</v>
@@ -27556,7 +27529,7 @@
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>463</v>
@@ -27586,7 +27559,7 @@
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>463</v>
@@ -27616,7 +27589,7 @@
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>463</v>
@@ -27984,9 +27957,7 @@
       <c r="O76" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -28014,9 +27985,7 @@
       <c r="O77" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="P77" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -28268,9 +28237,7 @@
       <c r="O86" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="P86" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -28494,9 +28461,7 @@
       <c r="O94" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="P94" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -28524,9 +28489,7 @@
       <c r="O95" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="P95" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -28554,9 +28517,7 @@
       <c r="O96" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="P96" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -28584,9 +28545,7 @@
       <c r="O97" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="P97" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -28614,9 +28573,7 @@
       <c r="O98" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="P98" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -28644,9 +28601,7 @@
       <c r="O99" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="P99" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -28674,9 +28629,7 @@
       <c r="O100" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -28704,9 +28657,7 @@
       <c r="O101" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="P101" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -28734,9 +28685,7 @@
       <c r="O102" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="P102" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -28764,9 +28713,7 @@
       <c r="O103" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -28794,9 +28741,7 @@
       <c r="O104" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="P104" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -29048,9 +28993,7 @@
       <c r="O113" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="P113" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECFB04F-DBB2-4701-9967-A815AE72553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="487">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1871,63 +1877,6 @@
   </si>
   <si>
     <t>WRN_DATA</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">02_売上データ, 01_取込データ, V_MAX_SEQ, W01_総括表, W02_明細, V_Wrn_N30, M08_KBN_CAT, V_Wrn_E30, WRN_DATA, M07_PB_ﾏｯﾁﾝｸﾞ, M09_KBN_ITEM, CLS_CODE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>tables missing</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">and  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">sp_import01, sp_rb_chk, sp_err_chk_04, sp_wrn_chk, sp_wrn_chk_PB_1, sp_wrn_chk_PB_2, sp_err_chk_01, sp_err_chk_01_2, sp_err_chk_02, sp_err_chk_03, sp_err_chk_05, sp_err_list, sp_ok_list, sp_biz_list, sp_glist_glist, sp_glist_dtl_W, sp_glist_dtl, sp_glist_err, sp_glist_biz, sp_biz_list, sp_err_mnt01, sp_err_mnt02  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SP also missing</t>
-    </r>
   </si>
   <si>
     <t>MrMAX_Wrn.ini</t>
@@ -2352,12 +2301,79 @@
       <t xml:space="preserve"> is missing</t>
     </r>
   </si>
+  <si>
+    <t>02_売上データ</t>
+  </si>
+  <si>
+    <t>01_取込データ</t>
+  </si>
+  <si>
+    <t>V_MAX_SEQ</t>
+  </si>
+  <si>
+    <t>W01_総括表</t>
+  </si>
+  <si>
+    <t>W02_明細</t>
+  </si>
+  <si>
+    <t>V_Wrn_N30</t>
+  </si>
+  <si>
+    <t>V_Wrn_E30</t>
+  </si>
+  <si>
+    <t>M07_PB_ﾏｯﾁﾝｸﾞ</t>
+  </si>
+  <si>
+    <t>M09_KBN_ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_PB固定 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">We have create the table using codebehind
+The following Sps are missing
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">sp_import01, sp_rb_chk, sp_err_chk_04, sp_wrn_chk, sp_wrn_chk_PB_1, sp_wrn_chk_PB_2, sp_err_chk_01, sp_err_chk_01_2, sp_err_chk_02, sp_err_chk_03, sp_err_chk_05, sp_err_list, sp_ok_list, sp_biz_list, sp_glist_glist, sp_glist_dtl_W, sp_glist_dtl, sp_glist_err, sp_glist_biz, sp_biz_list, sp_err_mnt01, sp_err_mnt02  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Import Document Need tocheck functionality</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2799,25 +2815,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2928,7 +2944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2960,9 +2976,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2994,6 +3028,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3169,7 +3221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3183,15 +3235,15 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3203,7 +3255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48" t="s">
         <v>14</v>
@@ -3229,7 +3281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -3237,7 +3289,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="48" t="s">
         <v>9</v>
@@ -3249,7 +3301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -3257,7 +3309,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3269,7 +3321,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3281,7 +3333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3293,7 +3345,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3305,7 +3357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3317,7 +3369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3329,7 +3381,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3355,7 +3407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3367,7 +3419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3379,7 +3431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3391,7 +3443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3403,7 +3455,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3415,7 +3467,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3427,7 +3479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3439,7 +3491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3451,7 +3503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3463,7 +3515,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3475,7 +3527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3487,7 +3539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3499,7 +3551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3511,7 +3563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3523,7 +3575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3535,7 +3587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3547,7 +3599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3559,7 +3611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3571,7 +3623,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3583,7 +3635,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3595,7 +3647,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3607,7 +3659,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3619,7 +3671,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3631,7 +3683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3643,7 +3695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3655,7 +3707,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3667,7 +3719,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3679,7 +3731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3691,7 +3743,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3703,7 +3755,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3715,7 +3767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3727,7 +3779,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3739,7 +3791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3751,7 +3803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3763,7 +3815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>2</v>
       </c>
@@ -3777,7 +3829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3789,7 +3841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3801,7 +3853,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3813,7 +3865,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3825,7 +3877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3837,7 +3889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3849,7 +3901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3861,7 +3913,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3873,7 +3925,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3885,7 +3937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3897,7 +3949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3909,7 +3961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +3975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3935,7 +3987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -3947,7 +3999,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
         <v>36</v>
       </c>
@@ -3961,7 +4013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -3973,7 +4025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -3985,7 +4037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="48" t="s">
         <v>3</v>
       </c>
@@ -3999,27 +4051,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4031,27 +4083,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4063,7 +4115,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4075,7 +4127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>127</v>
       </c>
@@ -4089,47 +4141,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="48"/>
-      <c r="B76" s="49" t="s">
+      <c r="B76" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4141,7 +4193,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4153,7 +4205,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>4</v>
       </c>
@@ -4167,27 +4219,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4199,7 +4251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4211,13 +4263,27 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4226,20 +4292,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4252,30 +4304,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I12" sqref="I12"/>
       <selection pane="topRight" activeCell="I12" sqref="I12"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68:C69"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4288,7 +4340,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -4303,9 +4355,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -4316,18 +4368,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
-      <c r="B4" s="53"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="48"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="48" t="s">
@@ -4338,16 +4390,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
-      <c r="B6" s="53"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="48"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4360,7 +4412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4375,7 +4427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4390,7 +4442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4403,7 +4455,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4416,7 +4468,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4429,7 +4481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
         <v>166</v>
       </c>
@@ -4444,7 +4496,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4457,7 +4509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4470,7 +4522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4483,7 +4535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4496,7 +4548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4509,7 +4561,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4522,7 +4574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4535,7 +4587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4548,7 +4600,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4561,7 +4613,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4574,7 +4626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4587,7 +4639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4600,7 +4652,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4613,7 +4665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4626,7 +4678,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4639,7 +4691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4652,7 +4704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4665,7 +4717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4678,7 +4730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4691,7 +4743,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4704,7 +4756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4717,7 +4769,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4730,7 +4782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4743,7 +4795,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4756,7 +4808,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4769,7 +4821,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4782,7 +4834,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4795,7 +4847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4808,7 +4860,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4823,7 +4875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4838,7 +4890,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4853,7 +4905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4866,7 +4918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4879,7 +4931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4892,7 +4944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4905,7 +4957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>175</v>
       </c>
@@ -4920,7 +4972,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -4933,7 +4985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -4946,7 +4998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -4959,7 +5011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -4972,7 +5024,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -4985,7 +5037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -4998,7 +5050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5011,7 +5063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5026,7 +5078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5039,7 +5091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5054,7 +5106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5067,7 +5119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
         <v>176</v>
       </c>
@@ -5082,7 +5134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5095,7 +5147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5108,7 +5160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
         <v>168</v>
       </c>
@@ -5123,7 +5175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5136,7 +5188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5149,7 +5201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="48" t="s">
         <v>169</v>
       </c>
@@ -5164,12 +5216,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5177,16 +5229,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5199,12 +5251,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5212,16 +5264,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5234,7 +5286,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5247,7 +5299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
@@ -5262,12 +5314,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="48"/>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5275,21 +5327,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="48"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5297,16 +5349,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5319,7 +5371,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5332,7 +5384,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="48" t="s">
         <v>104</v>
       </c>
@@ -5347,12 +5399,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5360,16 +5412,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5382,7 +5434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5395,29 +5447,35 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5434,12 +5492,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5451,27 +5503,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5480,7 +5532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>147</v>
       </c>
@@ -5491,7 +5543,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5500,7 +5552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5509,7 +5561,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5518,7 +5570,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5527,7 +5579,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5538,7 +5590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5549,7 +5601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5571,27 +5623,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
-    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232">
+    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5616,7 +5668,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27">
+    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -5639,7 +5691,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54">
+    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5660,7 +5712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232">
+    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5673,7 +5725,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232">
+    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5694,7 +5746,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232">
+    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5707,7 +5759,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232">
+    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5726,7 +5778,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27">
+    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5745,7 +5797,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232">
+    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5764,7 +5816,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232">
+    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5781,7 +5833,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232">
+    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5798,7 +5850,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232">
+    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5815,7 +5867,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232">
+    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5825,7 +5877,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232">
+    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5835,7 +5887,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1">
+    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
         <v>166</v>
       </c>
@@ -21079,7 +21131,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232">
+    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21100,7 +21152,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21121,7 +21173,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21142,7 +21194,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1">
+    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21161,7 +21213,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1">
+    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21182,7 +21234,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21203,7 +21255,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21224,7 +21276,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1">
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21245,7 +21297,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21266,7 +21318,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21287,7 +21339,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21308,7 +21360,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21329,7 +21381,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1">
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21348,7 +21400,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21369,7 +21421,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21390,7 +21442,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21411,7 +21463,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21432,7 +21484,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21453,7 +21505,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21474,7 +21526,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21495,7 +21547,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21516,7 +21568,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21537,7 +21589,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21560,7 +21612,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21583,7 +21635,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21606,7 +21658,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A41" s="48"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21629,7 +21681,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21652,7 +21704,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21673,7 +21725,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1">
+    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21692,7 +21744,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1">
+    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21711,7 +21763,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21730,7 +21782,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1">
+    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21747,7 +21799,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1">
+    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21764,7 +21816,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1">
+    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21781,7 +21833,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
+    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21798,7 +21850,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
+    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21809,7 +21861,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21820,7 +21872,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>175</v>
       </c>
@@ -21839,7 +21891,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21856,7 +21908,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21877,7 +21929,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21894,7 +21946,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21911,7 +21963,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -21928,7 +21980,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -21945,7 +21997,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -21962,7 +22014,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1">
+    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -21981,7 +22033,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1">
+    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -21998,7 +22050,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
+    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22017,7 +22069,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1">
+    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22034,7 +22086,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1">
+    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22045,7 +22097,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1">
+    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22056,7 +22108,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A67" s="57" t="s">
         <v>176</v>
       </c>
@@ -22079,7 +22131,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22100,7 +22152,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1">
+    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22117,7 +22169,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1">
+    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22128,7 +22180,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1">
+    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22139,7 +22191,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A72" s="57" t="s">
         <v>168</v>
       </c>
@@ -22162,7 +22214,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22183,7 +22235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1">
+    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22200,7 +22252,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1">
+    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22211,7 +22263,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1">
+    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22222,7 +22274,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A77" s="48" t="s">
         <v>169</v>
       </c>
@@ -22245,7 +22297,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" s="48"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22266,7 +22318,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1">
+    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="48"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22279,7 +22331,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1">
+    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" s="48"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22300,7 +22352,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1">
+    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" s="48"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22321,7 +22373,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1">
+    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="48"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22334,7 +22386,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" s="48"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22355,7 +22407,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1">
+    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="48"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22372,7 +22424,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1">
+    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22383,7 +22435,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1">
+    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22394,7 +22446,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A87" s="48" t="s">
         <v>106</v>
       </c>
@@ -22417,7 +22469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" s="48"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22438,7 +22490,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
+    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="48"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22451,7 +22503,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A90" s="48"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22472,7 +22524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
+    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="48"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22485,7 +22537,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A92" s="48"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22506,7 +22558,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1">
+    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="48"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22523,7 +22575,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1">
+    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22534,7 +22586,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1">
+    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22545,7 +22597,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1">
+    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="48" t="s">
         <v>104</v>
       </c>
@@ -22568,7 +22620,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="48"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22589,7 +22641,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1">
+    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22602,7 +22654,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A99" s="48"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22623,7 +22675,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1">
+    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="48"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22640,7 +22692,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1">
+    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22651,7 +22703,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1">
+    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22662,7 +22714,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1">
+    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22673,7 +22725,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1">
+    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22684,7 +22736,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1">
+    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22695,7 +22747,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1">
+    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22704,7 +22756,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1">
+    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22713,7 +22765,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1">
+    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22722,7 +22774,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1">
+    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22732,7 +22784,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1">
+    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22742,7 +22794,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1">
+    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22752,7 +22804,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1">
+    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22762,7 +22814,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1">
+    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22772,7 +22824,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1">
+    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22782,7 +22834,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1">
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22792,7 +22844,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1">
+    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22802,7 +22854,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1">
+    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22812,7 +22864,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1">
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22822,7 +22874,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1">
+    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22832,7 +22884,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1">
+    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22842,7 +22894,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1">
+    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22852,7 +22904,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1">
+    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22862,7 +22914,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1">
+    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22872,7 +22924,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1">
+    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22882,7 +22934,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1">
+    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22892,7 +22944,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1">
+    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22902,7 +22954,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1">
+    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22912,7 +22964,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1">
+    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22922,7 +22974,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1">
+    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22932,7 +22984,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1">
+    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22942,7 +22994,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1">
+    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -22952,7 +23004,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1">
+    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -22962,7 +23014,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1">
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -22972,7 +23024,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1">
+    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -22982,7 +23034,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1">
+    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -22992,7 +23044,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1">
+    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23002,7 +23054,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1">
+    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23012,7 +23064,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1">
+    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23022,7 +23074,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1">
+    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23032,7 +23084,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1">
+    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23042,7 +23094,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1">
+    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23052,7 +23104,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1">
+    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23079,29 +23131,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.875" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23131,7 +23182,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -23142,7 +23193,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23160,10 +23211,10 @@
         <v>334</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="81">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23172,7 +23223,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23190,10 +23241,10 @@
         <v>334</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23202,7 +23253,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23220,10 +23271,10 @@
         <v>334</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>166</v>
       </c>
@@ -23247,7 +23298,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23275,7 +23326,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23303,7 +23354,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23331,7 +23382,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23353,7 +23404,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23381,7 +23432,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23409,7 +23460,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23437,7 +23488,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23465,7 +23516,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23493,7 +23544,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23521,7 +23572,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23549,7 +23600,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23577,7 +23628,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23597,7 +23648,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23625,7 +23676,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23653,7 +23704,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23681,7 +23732,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23709,7 +23760,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27">
+    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23739,7 +23790,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23767,7 +23818,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23795,7 +23846,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23823,7 +23874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23851,7 +23902,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23881,7 +23932,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23911,7 +23962,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -23941,7 +23992,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -23971,7 +24022,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -24001,7 +24052,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24031,7 +24082,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24061,7 +24112,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24091,7 +24142,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24121,7 +24172,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24151,7 +24202,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24181,7 +24232,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24211,7 +24262,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24220,7 +24271,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24239,7 +24290,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
         <v>175</v>
       </c>
@@ -24261,7 +24312,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24277,7 +24328,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24293,7 +24344,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24309,7 +24360,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24325,7 +24376,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24341,7 +24392,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24357,7 +24408,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24373,7 +24424,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="48" t="s">
         <v>176</v>
       </c>
@@ -24405,7 +24456,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24435,7 +24486,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
         <v>168</v>
       </c>
@@ -24467,7 +24518,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="48"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24497,7 +24548,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="81" hidden="1">
+    <row r="53" spans="1:10" ht="118.8" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
         <v>169</v>
       </c>
@@ -24508,7 +24559,7 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
@@ -24526,10 +24577,10 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24556,10 +24607,10 @@
         <v>334</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24586,10 +24637,10 @@
         <v>334</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24616,10 +24667,10 @@
         <v>334</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24646,10 +24697,10 @@
         <v>334</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="27">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
         <v>106</v>
       </c>
@@ -24669,7 +24720,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24681,7 +24732,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="40.5">
+    <row r="59" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24711,7 +24762,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24729,7 +24780,7 @@
         <v>318</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>322</v>
@@ -24741,7 +24792,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24771,7 +24822,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
         <v>104</v>
       </c>
@@ -24800,10 +24851,10 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="40.5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24821,7 +24872,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24830,10 +24881,10 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="148.5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24851,7 +24902,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24860,17 +24911,11 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Bharathi"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24887,21 +24932,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24912,7 +24957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24923,7 +24968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>166</v>
       </c>
@@ -24934,7 +24979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -24943,7 +24988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24954,7 +24999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -24965,7 +25010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -24976,7 +25021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -24987,7 +25032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -24998,7 +25043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25009,8 +25054,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25020,8 +25065,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="53"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="55"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25029,7 +25074,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -25040,7 +25085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -25051,7 +25096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25062,7 +25107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -25073,7 +25118,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="s">
         <v>166</v>
       </c>
@@ -25084,7 +25129,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="59"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -25093,7 +25138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="59"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -25102,7 +25147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="59"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -25111,7 +25156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -25120,7 +25165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="59"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -25129,7 +25174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="59"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -25138,7 +25183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="59"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25147,7 +25192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="59"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25156,7 +25201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="59"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -25165,7 +25210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -25176,7 +25221,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27">
+    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -25187,7 +25232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
         <v>166</v>
       </c>
@@ -25198,7 +25243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="59"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -25207,7 +25252,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -25218,7 +25263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -25229,7 +25274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25253,38 +25298,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L100" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" customWidth="1"/>
+    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>354</v>
       </c>
@@ -25316,7 +25361,7 @@
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>357</v>
       </c>
@@ -25378,9 +25423,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>381</v>
@@ -25402,7 +25447,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
@@ -25422,15 +25467,15 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -25446,7 +25491,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
@@ -25466,9 +25511,9 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>381</v>
@@ -25490,13 +25535,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
@@ -25510,9 +25555,9 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>381</v>
@@ -25534,13 +25579,13 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
@@ -25554,9 +25599,9 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>381</v>
@@ -25578,7 +25623,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
@@ -25598,9 +25643,9 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>381</v>
@@ -25622,13 +25667,13 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
@@ -25642,9 +25687,9 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>381</v>
@@ -25666,7 +25711,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
@@ -25686,15 +25731,15 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -25710,7 +25755,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
@@ -25730,9 +25775,9 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>381</v>
@@ -25754,13 +25799,13 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
@@ -25774,9 +25819,9 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>381</v>
@@ -25798,13 +25843,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
@@ -25818,9 +25863,9 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>381</v>
@@ -25842,13 +25887,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
@@ -25862,15 +25907,15 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -25886,7 +25931,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
@@ -25906,9 +25951,9 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>381</v>
@@ -25930,13 +25975,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
@@ -25950,15 +25995,15 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -25974,7 +26019,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
@@ -25994,15 +26039,15 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -26018,13 +26063,13 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
@@ -26038,10 +26083,16 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -26056,13 +26107,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
@@ -26076,10 +26127,16 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
@@ -26094,13 +26151,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
@@ -26114,10 +26171,16 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -26132,7 +26195,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
@@ -26152,10 +26215,16 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>479</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -26170,7 +26239,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
@@ -26190,10 +26259,16 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -26208,13 +26283,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
@@ -26228,10 +26303,16 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
@@ -26246,13 +26327,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
@@ -26266,10 +26347,16 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -26280,13 +26367,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
@@ -26300,10 +26387,16 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -26314,7 +26407,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
@@ -26334,10 +26427,16 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -26348,13 +26447,13 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
@@ -26368,10 +26467,16 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -26382,13 +26487,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
@@ -26402,7 +26507,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26416,13 +26521,13 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
@@ -26436,7 +26541,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26450,13 +26555,13 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
@@ -26470,7 +26575,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26484,13 +26589,13 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
@@ -26504,7 +26609,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26518,13 +26623,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
@@ -26538,7 +26643,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26552,13 +26657,13 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
@@ -26572,7 +26677,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26586,16 +26691,16 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q33" s="36" t="s">
         <v>360</v>
@@ -26608,7 +26713,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26622,16 +26727,16 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q34" s="36" t="s">
         <v>360</v>
@@ -26644,7 +26749,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26658,13 +26763,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
@@ -26678,7 +26783,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26692,7 +26797,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
@@ -26712,7 +26817,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26726,13 +26831,13 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
@@ -26746,7 +26851,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26760,13 +26865,13 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
@@ -26780,7 +26885,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26794,13 +26899,13 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
@@ -26814,7 +26919,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26828,13 +26933,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
@@ -26848,7 +26953,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26862,13 +26967,13 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
@@ -26882,7 +26987,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -26896,7 +27001,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
@@ -26916,7 +27021,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -26930,13 +27035,13 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
@@ -26950,7 +27055,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -26964,7 +27069,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
@@ -26984,7 +27089,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -26998,13 +27103,13 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
@@ -27018,7 +27123,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27032,13 +27137,13 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
@@ -27052,7 +27157,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27066,13 +27171,13 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
@@ -27086,7 +27191,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27100,13 +27205,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
@@ -27120,7 +27225,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27134,13 +27239,13 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
@@ -27154,7 +27259,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27168,13 +27273,13 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
@@ -27188,7 +27293,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27202,13 +27307,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27216,7 +27321,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27230,13 +27335,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27244,7 +27349,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27258,23 +27363,23 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27288,23 +27393,23 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27318,23 +27423,23 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27348,23 +27453,23 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27378,23 +27483,23 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27408,23 +27513,23 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27438,23 +27543,23 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27468,23 +27573,23 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27498,23 +27603,23 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27528,23 +27633,23 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27558,23 +27663,23 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27588,7 +27693,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
@@ -27602,7 +27707,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27616,13 +27721,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27630,7 +27735,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27644,7 +27749,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
@@ -27658,7 +27763,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27672,7 +27777,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
@@ -27686,7 +27791,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27700,13 +27805,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27714,7 +27819,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27728,7 +27833,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
@@ -27742,7 +27847,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27756,7 +27861,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
@@ -27770,7 +27875,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27784,13 +27889,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27798,7 +27903,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27812,7 +27917,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
@@ -27826,7 +27931,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27840,7 +27945,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
@@ -27854,7 +27959,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27868,7 +27973,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
@@ -27882,7 +27987,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -27896,13 +28001,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -27910,7 +28015,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -27924,13 +28029,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -27938,7 +28043,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -27952,13 +28057,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -27966,7 +28071,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -27980,10 +28085,10 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>382</v>
@@ -27994,7 +28099,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28008,10 +28113,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>373</v>
@@ -28022,7 +28127,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28036,10 +28141,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>385</v>
@@ -28050,7 +28155,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28064,10 +28169,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>386</v>
@@ -28078,7 +28183,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28092,13 +28197,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28106,7 +28211,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28120,10 +28225,10 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>388</v>
@@ -28134,7 +28239,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28148,10 +28253,10 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>389</v>
@@ -28162,7 +28267,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28176,10 +28281,10 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>401</v>
@@ -28190,7 +28295,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28204,13 +28309,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O86" s="34" t="s">
         <v>446</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>447</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28218,7 +28323,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28232,7 +28337,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
@@ -28246,7 +28351,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28260,7 +28365,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
@@ -28274,7 +28379,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28288,7 +28393,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
@@ -28302,7 +28407,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28316,7 +28421,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
@@ -28330,7 +28435,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28344,7 +28449,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
@@ -28358,7 +28463,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28372,7 +28477,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
@@ -28386,7 +28491,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28400,7 +28505,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
@@ -28414,7 +28519,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28428,7 +28533,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
@@ -28442,7 +28547,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28456,7 +28561,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
@@ -28470,7 +28575,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28484,7 +28589,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
@@ -28498,7 +28603,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28512,7 +28617,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
@@ -28526,7 +28631,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28540,7 +28645,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
@@ -28554,7 +28659,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28568,7 +28673,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
@@ -28582,7 +28687,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28596,7 +28701,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
@@ -28610,7 +28715,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28624,7 +28729,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
@@ -28638,7 +28743,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28652,7 +28757,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
@@ -28666,7 +28771,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28680,13 +28785,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28694,7 +28799,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28708,13 +28813,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28722,7 +28827,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28736,13 +28841,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28750,7 +28855,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28764,13 +28869,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28778,7 +28883,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28792,7 +28897,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
@@ -28806,7 +28911,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28820,7 +28925,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
@@ -28834,7 +28939,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28848,13 +28953,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28862,7 +28967,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28876,13 +28981,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28890,7 +28995,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -28904,13 +29009,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -28918,7 +29023,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -28932,7 +29037,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
@@ -28946,7 +29051,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -28960,7 +29065,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
@@ -28974,7 +29079,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -28988,13 +29093,13 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -29002,7 +29107,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29024,7 +29129,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29046,7 +29151,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29068,7 +29173,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29090,7 +29195,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29112,7 +29217,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29134,7 +29239,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29156,7 +29261,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29178,7 +29283,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29200,7 +29305,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29222,7 +29327,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29244,7 +29349,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29266,7 +29371,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29288,7 +29393,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29310,7 +29415,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29332,7 +29437,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29354,7 +29459,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29376,7 +29481,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29398,7 +29503,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29420,7 +29525,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29442,7 +29547,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29464,7 +29569,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29486,7 +29591,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29508,7 +29613,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29530,7 +29635,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29552,7 +29657,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29574,7 +29679,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29596,7 +29701,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29618,7 +29723,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29640,7 +29745,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -29662,7 +29767,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECFB04F-DBB2-4701-9967-A815AE72553E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="488">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1608,29 +1602,6 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> tables are missing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Working fine.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> after sp_best_ivc_close_return_01'
-'sp_best_ivc_close_return_02 is implemented</t>
     </r>
   </si>
   <si>
@@ -2368,12 +2339,37 @@
       <t>Import Document Need tocheck functionality</t>
     </r>
   </si>
+  <si>
+    <t>Working fine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Working fine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2679,7 +2675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2815,25 +2811,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2883,6 +2879,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2944,7 +2943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2976,27 +2975,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3028,24 +3009,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3221,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3235,15 +3198,15 @@
       <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3255,7 +3218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3232,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="48"/>
       <c r="B3" s="48" t="s">
         <v>14</v>
@@ -3281,7 +3244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -3289,7 +3252,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="48"/>
       <c r="B5" s="48" t="s">
         <v>9</v>
@@ -3301,7 +3264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -3309,7 +3272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3321,7 +3284,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3333,7 +3296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3345,7 +3308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3357,7 +3320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3369,7 +3332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3381,7 +3344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="48" t="s">
         <v>1</v>
       </c>
@@ -3395,7 +3358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3407,7 +3370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3419,7 +3382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3431,7 +3394,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3443,7 +3406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3455,7 +3418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3467,7 +3430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3479,7 +3442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3491,7 +3454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3503,7 +3466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3515,7 +3478,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3527,7 +3490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3539,7 +3502,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3551,7 +3514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3563,7 +3526,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3575,7 +3538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3587,7 +3550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3599,7 +3562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3611,7 +3574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3623,7 +3586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3635,7 +3598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3647,7 +3610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3659,7 +3622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3671,7 +3634,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3683,7 +3646,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3695,7 +3658,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3707,7 +3670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3719,7 +3682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3731,7 +3694,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -3743,7 +3706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -3755,7 +3718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -3767,7 +3730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -3779,7 +3742,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -3791,7 +3754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -3803,7 +3766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -3815,7 +3778,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="48" t="s">
         <v>2</v>
       </c>
@@ -3829,7 +3792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -3841,7 +3804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -3853,7 +3816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -3865,7 +3828,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -3877,7 +3840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -3889,7 +3852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -3901,7 +3864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -3913,7 +3876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -3925,7 +3888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -3937,7 +3900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -3949,7 +3912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -3961,7 +3924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="48" t="s">
         <v>35</v>
       </c>
@@ -3975,7 +3938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -3987,7 +3950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -3999,7 +3962,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="48" t="s">
         <v>36</v>
       </c>
@@ -4013,7 +3976,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4025,7 +3988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4037,7 +4000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="48" t="s">
         <v>3</v>
       </c>
@@ -4051,27 +4014,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="48"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="48"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4083,27 +4046,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="48"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4115,7 +4078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4127,7 +4090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="48" t="s">
         <v>127</v>
       </c>
@@ -4141,47 +4104,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="48"/>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="48"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="48"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4193,7 +4156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4205,7 +4168,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="48" t="s">
         <v>4</v>
       </c>
@@ -4219,27 +4182,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="48"/>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="48"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4251,7 +4214,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4263,19 +4226,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4284,14 +4249,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4304,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4318,16 +4281,16 @@
       <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -4340,7 +4303,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -4355,9 +4318,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="48"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -4368,18 +4331,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="48"/>
-      <c r="B4" s="55"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="48"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="48"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="48" t="s">
@@ -4390,16 +4353,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="48"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="48"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="48"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -4412,7 +4375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -4427,7 +4390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="48"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -4442,7 +4405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -4455,7 +4418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="48"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -4468,7 +4431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -4481,7 +4444,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="48" t="s">
         <v>166</v>
       </c>
@@ -4496,7 +4459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -4509,7 +4472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -4522,7 +4485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="48"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -4535,7 +4498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -4548,7 +4511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -4561,7 +4524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -4574,7 +4537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="48"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -4587,7 +4550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -4600,7 +4563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -4613,7 +4576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="48"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -4626,7 +4589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -4639,7 +4602,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -4652,7 +4615,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -4665,7 +4628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="48"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -4678,7 +4641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -4691,7 +4654,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -4704,7 +4667,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="48"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -4717,7 +4680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="48"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -4730,7 +4693,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -4743,7 +4706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -4756,7 +4719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -4769,7 +4732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="48"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -4782,7 +4745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="48"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -4795,7 +4758,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="48"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -4808,7 +4771,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="48"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -4821,7 +4784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="48"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -4834,7 +4797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="48"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -4847,7 +4810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="48"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -4860,7 +4823,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="48"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -4875,7 +4838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="48"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -4890,7 +4853,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="48"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -4905,7 +4868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="48"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -4918,7 +4881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="48"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -4931,7 +4894,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="48"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -4944,7 +4907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="48"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -4957,7 +4920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="48" t="s">
         <v>175</v>
       </c>
@@ -4972,7 +4935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="48"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -4985,7 +4948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="48"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -4998,7 +4961,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="48"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -5011,7 +4974,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="48"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -5024,7 +4987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -5037,7 +5000,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="48"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -5050,7 +5013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="48"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -5063,7 +5026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="48"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -5078,7 +5041,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="48"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -5091,7 +5054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="48"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -5106,7 +5069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="48"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -5119,7 +5082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="48" t="s">
         <v>176</v>
       </c>
@@ -5134,7 +5097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="48"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -5147,7 +5110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" s="48"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -5160,7 +5123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="48" t="s">
         <v>168</v>
       </c>
@@ -5175,7 +5138,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="48"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -5188,7 +5151,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="48"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -5201,7 +5164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="48" t="s">
         <v>169</v>
       </c>
@@ -5216,12 +5179,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" s="48"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5229,16 +5192,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" s="48"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" s="48"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -5251,12 +5214,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" s="48"/>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="49" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5264,16 +5227,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" s="48"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -5286,7 +5249,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" s="48"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -5299,7 +5262,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
@@ -5314,12 +5277,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" s="48"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5327,21 +5290,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" s="48"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="51"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" s="48"/>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5349,16 +5312,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" s="48"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -5371,7 +5334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="48"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -5384,7 +5347,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="48" t="s">
         <v>104</v>
       </c>
@@ -5399,12 +5362,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="48"/>
-      <c r="B83" s="49" t="s">
+      <c r="B83" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5412,16 +5375,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="48"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="48"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -5434,7 +5397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="48"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -5447,35 +5410,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5492,6 +5449,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -5503,27 +5466,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -5532,7 +5495,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="56" t="s">
         <v>147</v>
       </c>
@@ -5543,7 +5506,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="56"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -5552,7 +5515,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="56"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -5561,7 +5524,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="78.75">
       <c r="A7" s="56"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -5570,7 +5533,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -5579,7 +5542,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -5590,7 +5553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -5601,7 +5564,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -5623,27 +5586,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="50.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="8" max="8" width="50.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -5668,7 +5631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15232" ht="27">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -5691,7 +5654,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15232" ht="54">
       <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -5712,7 +5675,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15232">
       <c r="A4" s="48"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5725,7 +5688,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15232">
       <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -5746,7 +5709,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15232">
       <c r="A6" s="48"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5759,7 +5722,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15232">
       <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -5778,7 +5741,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15232" ht="27">
       <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -5797,7 +5760,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15232">
       <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -5816,7 +5779,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15232">
       <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -5833,7 +5796,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15232">
       <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -5850,7 +5813,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15232">
       <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -5867,7 +5830,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -5877,7 +5840,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -5887,7 +5850,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
       <c r="A15" s="48" t="s">
         <v>166</v>
       </c>
@@ -21131,7 +21094,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15232">
       <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -21152,7 +21115,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -21173,7 +21136,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -21194,7 +21157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="18" customFormat="1">
       <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -21213,7 +21176,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="18" customFormat="1">
       <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -21234,7 +21197,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -21255,7 +21218,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -21276,7 +21239,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="18" customFormat="1">
       <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -21297,7 +21260,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -21318,7 +21281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -21339,7 +21302,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -21360,7 +21323,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -21381,7 +21344,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="18" customFormat="1">
       <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -21400,7 +21363,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -21421,7 +21384,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -21442,7 +21405,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -21463,7 +21426,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -21484,7 +21447,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -21505,7 +21468,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -21526,7 +21489,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -21547,7 +21510,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -21568,7 +21531,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -21589,7 +21552,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -21612,7 +21575,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -21635,7 +21598,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -21658,7 +21621,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A41" s="48"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -21681,7 +21644,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -21704,7 +21667,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -21725,7 +21688,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="18" customFormat="1">
       <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -21744,7 +21707,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="18" customFormat="1">
       <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -21763,7 +21726,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -21782,7 +21745,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="18" customFormat="1">
       <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -21799,7 +21762,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="18" customFormat="1">
       <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -21816,7 +21779,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="18" customFormat="1">
       <c r="A49" s="48"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -21833,7 +21796,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="18" customFormat="1">
       <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -21850,7 +21813,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -21861,7 +21824,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -21872,7 +21835,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="18" customFormat="1">
       <c r="A53" s="48" t="s">
         <v>175</v>
       </c>
@@ -21891,7 +21854,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="18" customFormat="1">
       <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -21908,7 +21871,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -21929,7 +21892,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="18" customFormat="1">
       <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -21946,7 +21909,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="18" customFormat="1">
       <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -21963,7 +21926,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="18" customFormat="1">
       <c r="A58" s="48"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -21980,7 +21943,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="18" customFormat="1">
       <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -21997,7 +21960,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="18" customFormat="1">
       <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -22014,7 +21977,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="18" customFormat="1">
       <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -22033,7 +21996,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="18" customFormat="1">
       <c r="A62" s="48"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -22050,7 +22013,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="18" customFormat="1">
       <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -22069,7 +22032,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="18" customFormat="1">
       <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -22086,7 +22049,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -22097,7 +22060,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -22108,7 +22071,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A67" s="57" t="s">
         <v>176</v>
       </c>
@@ -22131,7 +22094,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A68" s="57"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -22152,7 +22115,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="18" customFormat="1">
       <c r="A69" s="57"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -22169,7 +22132,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -22180,7 +22143,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -22191,7 +22154,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A72" s="57" t="s">
         <v>168</v>
       </c>
@@ -22214,7 +22177,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A73" s="57"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -22235,7 +22198,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="18" customFormat="1">
       <c r="A74" s="57"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -22252,7 +22215,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -22263,7 +22226,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -22274,7 +22237,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A77" s="48" t="s">
         <v>169</v>
       </c>
@@ -22297,7 +22260,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A78" s="48"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -22318,7 +22281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="18" customFormat="1">
       <c r="A79" s="48"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -22331,7 +22294,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="18" customFormat="1">
       <c r="A80" s="48"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -22352,7 +22315,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="18" customFormat="1">
       <c r="A81" s="48"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -22373,7 +22336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="18" customFormat="1">
       <c r="A82" s="48"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -22386,7 +22349,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A83" s="48"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -22407,7 +22370,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="18" customFormat="1">
       <c r="A84" s="48"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -22424,7 +22387,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -22435,7 +22398,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -22446,7 +22409,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A87" s="48" t="s">
         <v>106</v>
       </c>
@@ -22469,7 +22432,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A88" s="48"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -22490,7 +22453,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="18" customFormat="1">
       <c r="A89" s="48"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -22503,7 +22466,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A90" s="48"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -22524,7 +22487,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="18" customFormat="1">
       <c r="A91" s="48"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -22537,7 +22500,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A92" s="48"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -22558,7 +22521,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="18" customFormat="1">
       <c r="A93" s="48"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -22575,7 +22538,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -22586,7 +22549,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -22597,7 +22560,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="18" customFormat="1">
       <c r="A96" s="48" t="s">
         <v>104</v>
       </c>
@@ -22620,7 +22583,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A97" s="48"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -22641,7 +22604,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="18" customFormat="1">
       <c r="A98" s="48"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -22654,7 +22617,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A99" s="48"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -22675,7 +22638,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="18" customFormat="1">
       <c r="A100" s="48"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -22692,7 +22655,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -22703,7 +22666,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -22714,7 +22677,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -22725,7 +22688,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -22736,7 +22699,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -22747,7 +22710,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -22756,7 +22719,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -22765,7 +22728,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -22774,7 +22737,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -22784,7 +22747,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -22794,7 +22757,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -22804,7 +22767,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -22814,7 +22777,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -22824,7 +22787,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -22834,7 +22797,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -22844,7 +22807,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -22854,7 +22817,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -22864,7 +22827,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -22874,7 +22837,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -22884,7 +22847,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -22894,7 +22857,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -22904,7 +22867,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -22914,7 +22877,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -22924,7 +22887,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -22934,7 +22897,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -22944,7 +22907,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -22954,7 +22917,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -22964,7 +22927,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -22974,7 +22937,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -22984,7 +22947,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -22994,7 +22957,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -23004,7 +22967,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -23014,7 +22977,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -23024,7 +22987,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -23034,7 +22997,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -23044,7 +23007,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -23054,7 +23017,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -23064,7 +23027,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -23074,7 +23037,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -23084,7 +23047,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -23094,7 +23057,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -23104,7 +23067,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -23131,28 +23094,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.875" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -23170,7 +23134,7 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>320</v>
@@ -23182,7 +23146,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="48" t="s">
         <v>165</v>
       </c>
@@ -23193,7 +23157,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23208,13 +23172,13 @@
         <v>322</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="79.2" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81">
       <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -23223,7 +23187,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23238,13 +23202,13 @@
         <v>322</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="48"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -23253,7 +23217,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23268,13 +23232,13 @@
         <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="48" t="s">
         <v>166</v>
       </c>
@@ -23289,16 +23253,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23310,23 +23274,23 @@
         <v>302</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="48"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23345,16 +23309,16 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23373,16 +23337,16 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23395,16 +23359,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23423,16 +23387,16 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="48"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23444,23 +23408,23 @@
         <v>302</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23472,23 +23436,23 @@
         <v>302</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="48"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23507,16 +23471,16 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23535,16 +23499,16 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="48"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23563,16 +23527,16 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="48"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23591,16 +23555,16 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="48"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23619,16 +23583,16 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="48"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23639,16 +23603,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="48"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23657,26 +23621,26 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23685,26 +23649,26 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23723,16 +23687,16 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23751,16 +23715,16 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J22" s="34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="48"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
@@ -23787,10 +23751,10 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="48"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23799,26 +23763,26 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E24" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="48"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23827,26 +23791,26 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23865,16 +23829,16 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23883,26 +23847,26 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="48"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23920,7 +23884,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>323</v>
@@ -23929,10 +23893,10 @@
         <v>325</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="48"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23959,10 +23923,10 @@
         <v>325</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="48"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -23980,7 +23944,7 @@
         <v>304</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>323</v>
@@ -23989,10 +23953,10 @@
         <v>325</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -24010,7 +23974,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>323</v>
@@ -24019,10 +23983,10 @@
         <v>325</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -24040,7 +24004,7 @@
         <v>308</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
@@ -24049,10 +24013,10 @@
         <v>325</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -24070,7 +24034,7 @@
         <v>295</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>323</v>
@@ -24079,10 +24043,10 @@
         <v>325</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="48"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -24100,7 +24064,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>323</v>
@@ -24109,10 +24073,10 @@
         <v>325</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="48"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -24130,7 +24094,7 @@
         <v>295</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>323</v>
@@ -24139,10 +24103,10 @@
         <v>325</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="48"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24169,10 +24133,10 @@
         <v>325</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="48"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24190,7 +24154,7 @@
         <v>304</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>323</v>
@@ -24199,10 +24163,10 @@
         <v>325</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="48"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24220,7 +24184,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>323</v>
@@ -24229,10 +24193,10 @@
         <v>325</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="48"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24250,7 +24214,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>323</v>
@@ -24259,10 +24223,10 @@
         <v>325</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="48"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
@@ -24271,7 +24235,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24288,9 +24252,11 @@
       <c r="I40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="72" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="48" t="s">
         <v>175</v>
       </c>
@@ -24309,10 +24275,10 @@
         <v>325</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="48"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24328,7 +24294,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="48"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24344,7 +24310,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="48"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24360,7 +24326,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="48"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24376,7 +24342,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="48"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24392,7 +24358,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="48"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24408,7 +24374,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="48"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24424,7 +24390,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="48" t="s">
         <v>176</v>
       </c>
@@ -24453,10 +24419,10 @@
         <v>325</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="48"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24483,10 +24449,10 @@
         <v>325</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="48" t="s">
         <v>168</v>
       </c>
@@ -24518,7 +24484,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="48"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24542,13 +24508,13 @@
         <v>323</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="118.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" ht="121.5" hidden="1">
       <c r="A53" s="48" t="s">
         <v>169</v>
       </c>
@@ -24559,16 +24525,16 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>321</v>
@@ -24577,10 +24543,10 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="48"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24589,28 +24555,28 @@
         <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="48"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24619,28 +24585,28 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="48"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24649,28 +24615,28 @@
         <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="48"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24679,28 +24645,28 @@
         <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="27">
       <c r="A58" s="48" t="s">
         <v>106</v>
       </c>
@@ -24720,7 +24686,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24732,7 +24698,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="40.5">
       <c r="A59" s="48"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
@@ -24762,7 +24728,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" s="48"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
@@ -24780,7 +24746,7 @@
         <v>318</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>322</v>
@@ -24792,7 +24758,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" s="48"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
@@ -24822,7 +24788,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" s="48" t="s">
         <v>104</v>
       </c>
@@ -24851,10 +24817,10 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="40.5">
       <c r="A63" s="48"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
@@ -24872,7 +24838,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24881,10 +24847,10 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="145.19999999999999" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="148.5">
       <c r="A64" s="48"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
@@ -24902,7 +24868,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24911,11 +24877,17 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:J64">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Bharathi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
     <mergeCell ref="A62:A64"/>
@@ -24932,21 +24904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -24957,7 +24929,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -24968,7 +24940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="58" t="s">
         <v>166</v>
       </c>
@@ -24979,7 +24951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="58"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -24988,7 +24960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -24999,7 +24971,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -25010,7 +24982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -25021,7 +24993,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -25032,7 +25004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -25043,7 +25015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -25054,8 +25026,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25065,8 +25037,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25074,7 +25046,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -25085,7 +25057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -25096,7 +25068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -25107,7 +25079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -25118,7 +25090,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="59" t="s">
         <v>166</v>
       </c>
@@ -25126,10 +25098,10 @@
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="59"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -25138,7 +25110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="59"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -25147,7 +25119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="59"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -25156,7 +25128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="59"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -25165,7 +25137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="59"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -25174,7 +25146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="59"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -25183,7 +25155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="59"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25192,7 +25164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="59"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25201,7 +25173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="59"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -25210,7 +25182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -25221,7 +25193,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="27">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -25232,7 +25204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="59" t="s">
         <v>166</v>
       </c>
@@ -25243,7 +25215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="59"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -25252,7 +25224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -25263,7 +25235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -25274,7 +25246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -25298,52 +25270,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="J97" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="63"/>
       <c r="E1" s="64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
       <c r="H1" s="66"/>
       <c r="I1" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
@@ -25361,85 +25333,85 @@
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>358</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>359</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>358</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>359</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>357</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>358</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>359</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>358</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>359</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>358</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>359</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -25447,43 +25419,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="R3" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>361</v>
-      </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25491,43 +25463,43 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -25535,43 +25507,43 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -25579,43 +25551,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -25623,43 +25595,43 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -25667,43 +25639,43 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -25711,43 +25683,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="R9" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>361</v>
-      </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -25755,43 +25727,43 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -25799,43 +25771,43 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -25843,43 +25815,43 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -25887,43 +25859,43 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -25931,43 +25903,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -25975,43 +25947,43 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -26019,43 +25991,43 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -26063,43 +26035,43 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -26107,43 +26079,43 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26151,43 +26123,43 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26195,43 +26167,43 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26239,43 +26211,43 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26283,43 +26255,43 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26327,35 +26299,35 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -26367,35 +26339,35 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -26407,35 +26379,35 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -26447,35 +26419,35 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -26487,27 +26459,27 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -26521,27 +26493,27 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -26555,27 +26527,27 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -26589,27 +26561,27 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -26623,27 +26595,27 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -26657,27 +26629,27 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -26691,29 +26663,29 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -26727,29 +26699,29 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -26763,27 +26735,27 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -26797,27 +26769,27 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -26831,27 +26803,27 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -26865,27 +26837,27 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -26899,27 +26871,27 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -26933,27 +26905,27 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -26967,27 +26939,27 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -27001,27 +26973,27 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -27035,27 +27007,27 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -27069,27 +27041,27 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -27103,27 +27075,27 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -27137,27 +27109,27 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -27171,27 +27143,27 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -27205,27 +27177,27 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -27239,27 +27211,27 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -27273,27 +27245,27 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -27307,13 +27279,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27321,7 +27293,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -27335,13 +27307,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27349,7 +27321,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -27363,23 +27335,23 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -27393,23 +27365,23 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -27423,23 +27395,23 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -27453,23 +27425,23 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -27483,23 +27455,23 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -27513,23 +27485,23 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -27543,23 +27515,23 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -27573,23 +27545,23 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -27603,23 +27575,23 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -27633,23 +27605,23 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -27663,23 +27635,23 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -27693,13 +27665,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -27707,7 +27679,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -27721,13 +27693,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27735,7 +27707,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -27749,13 +27721,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -27763,7 +27735,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -27777,13 +27749,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -27791,7 +27763,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -27805,13 +27777,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27819,7 +27791,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -27833,13 +27805,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -27847,7 +27819,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -27861,13 +27833,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -27875,7 +27847,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -27889,13 +27861,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27903,7 +27875,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -27917,13 +27889,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -27931,7 +27903,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -27945,13 +27917,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -27959,7 +27931,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -27973,13 +27945,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -27987,7 +27959,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -28001,13 +27973,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -28015,7 +27987,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -28029,13 +28001,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -28043,7 +28015,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -28057,13 +28029,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -28071,7 +28043,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -28085,13 +28057,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -28099,7 +28071,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -28113,13 +28085,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -28127,7 +28099,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -28141,13 +28113,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -28155,7 +28127,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -28169,13 +28141,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -28183,7 +28155,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -28197,13 +28169,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28211,7 +28183,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -28225,13 +28197,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -28239,7 +28211,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -28253,13 +28225,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -28267,7 +28239,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -28281,13 +28253,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -28295,7 +28267,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -28309,13 +28281,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O86" s="34" t="s">
         <v>445</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>446</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28323,7 +28295,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -28337,13 +28309,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -28351,7 +28323,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -28365,13 +28337,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -28379,7 +28351,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -28393,13 +28365,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -28407,7 +28379,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -28421,13 +28393,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -28435,7 +28407,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -28449,13 +28421,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -28463,7 +28435,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -28477,13 +28449,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -28491,7 +28463,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -28505,13 +28477,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -28519,7 +28491,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -28533,13 +28505,13 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -28547,7 +28519,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -28561,13 +28533,13 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -28575,7 +28547,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -28589,13 +28561,13 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -28603,7 +28575,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -28617,13 +28589,13 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -28631,7 +28603,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -28645,13 +28617,13 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -28659,7 +28631,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -28673,13 +28645,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -28687,7 +28659,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -28701,13 +28673,13 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -28715,7 +28687,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -28729,13 +28701,13 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -28743,7 +28715,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -28757,13 +28729,13 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -28771,7 +28743,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -28785,13 +28757,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28799,7 +28771,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -28813,13 +28785,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28827,7 +28799,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -28841,13 +28813,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28855,7 +28827,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -28869,13 +28841,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28883,7 +28855,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -28897,13 +28869,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -28911,7 +28883,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -28925,13 +28897,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -28939,7 +28911,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -28953,13 +28925,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28967,7 +28939,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -28981,13 +28953,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28995,7 +28967,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -29009,13 +28981,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -29023,7 +28995,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -29037,13 +29009,13 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -29051,7 +29023,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -29065,13 +29037,13 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -29079,7 +29051,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -29093,13 +29065,13 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -29107,7 +29079,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -29129,7 +29101,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -29151,7 +29123,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -29173,7 +29145,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -29195,7 +29167,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -29217,7 +29189,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -29239,7 +29211,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -29261,7 +29233,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -29283,7 +29255,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -29305,7 +29277,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -29327,7 +29299,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -29349,7 +29321,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -29371,7 +29343,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -29393,7 +29365,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -29415,7 +29387,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -29437,7 +29409,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -29459,7 +29431,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -29481,7 +29453,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -29503,7 +29475,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -29525,7 +29497,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -29547,7 +29519,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -29569,7 +29541,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -29591,7 +29563,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -29613,7 +29585,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -29635,7 +29607,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -29657,7 +29629,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -29679,7 +29651,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -29701,7 +29673,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -29723,7 +29695,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -29745,7 +29717,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -29767,7 +29739,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="485">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1570,28 +1570,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>V_ICDT_DTL table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> is missing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>Q_DTL, V_cls_022</t>
     </r>
     <r>
@@ -1946,9 +1924,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kuroganeya_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuroganeya_temp </t>
   </si>
   <si>
     <t xml:space="preserve">Homac </t>
@@ -2130,29 +2105,6 @@
   </si>
   <si>
     <t>CX_WRN_MAIN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Working fine.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> But date issue has come.so I have commented the below line in the project
-DtView1(0)("input_date")</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">no ini found(DB from web.config) </t>
@@ -2808,6 +2760,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2879,9 +2834,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3219,7 +3171,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3233,11 +3185,11 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3245,19 +3197,19 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3265,15 +3217,15 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3285,7 +3237,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
@@ -3297,7 +3249,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
@@ -3309,7 +3261,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
@@ -3321,7 +3273,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
@@ -3333,7 +3285,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
@@ -3345,7 +3297,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3359,7 +3311,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3371,7 +3323,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
@@ -3383,7 +3335,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3395,7 +3347,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3407,7 +3359,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3419,7 +3371,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
@@ -3431,7 +3383,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3443,7 +3395,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -3455,7 +3407,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
@@ -3467,7 +3419,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3479,7 +3431,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3491,7 +3443,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3503,7 +3455,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
@@ -3515,7 +3467,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,7 +3479,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
@@ -3539,7 +3491,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
@@ -3551,7 +3503,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
@@ -3563,7 +3515,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3575,7 +3527,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
@@ -3587,7 +3539,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -3599,7 +3551,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
@@ -3611,7 +3563,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
       </c>
@@ -3623,7 +3575,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
       </c>
@@ -3635,7 +3587,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3647,7 +3599,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
       </c>
@@ -3659,7 +3611,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
@@ -3671,7 +3623,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
@@ -3683,7 +3635,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
       </c>
@@ -3695,7 +3647,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
@@ -3707,7 +3659,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
       </c>
@@ -3719,7 +3671,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
@@ -3731,7 +3683,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
       </c>
@@ -3743,7 +3695,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
@@ -3755,7 +3707,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
       </c>
@@ -3767,7 +3719,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
       </c>
@@ -3779,7 +3731,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3793,7 +3745,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -3805,7 +3757,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
@@ -3817,7 +3769,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
@@ -3829,7 +3781,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
       </c>
@@ -3841,7 +3793,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
       </c>
@@ -3853,7 +3805,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
       </c>
@@ -3865,7 +3817,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
       </c>
@@ -3877,7 +3829,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
       </c>
@@ -3889,7 +3841,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
@@ -3901,7 +3853,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
       </c>
@@ -3913,7 +3865,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3925,7 +3877,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3939,7 +3891,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
@@ -3951,7 +3903,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3963,7 +3915,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="49" t="s">
         <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3977,7 +3929,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +3941,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
       </c>
@@ -4001,7 +3953,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -4015,11 +3967,11 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="48"/>
-      <c r="B68" s="49" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4027,15 +3979,15 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="48"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
       </c>
@@ -4047,11 +3999,11 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4059,15 +4011,15 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="48"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
       </c>
@@ -4079,7 +4031,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="48"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
@@ -4091,7 +4043,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="49" t="s">
         <v>127</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -4105,11 +4057,11 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4117,19 +4069,19 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4137,15 +4089,15 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
@@ -4157,7 +4109,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="48"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
       </c>
@@ -4169,7 +4121,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -4183,11 +4135,11 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4195,15 +4147,15 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
       </c>
@@ -4215,7 +4167,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
       </c>
@@ -4304,7 +4256,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4319,11 +4271,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="10"/>
@@ -4332,20 +4284,20 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
@@ -4354,16 +4306,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
       </c>
@@ -4376,7 +4328,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
       </c>
@@ -4391,7 +4343,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
@@ -4406,7 +4358,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
       </c>
@@ -4419,7 +4371,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
@@ -4432,7 +4384,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
@@ -4445,7 +4397,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="49" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4460,7 +4412,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4473,7 +4425,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
@@ -4486,7 +4438,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
       </c>
@@ -4499,7 +4451,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
       </c>
@@ -4512,7 +4464,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
       </c>
@@ -4525,7 +4477,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
       </c>
@@ -4538,7 +4490,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -4551,7 +4503,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
       </c>
@@ -4564,7 +4516,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
       </c>
@@ -4577,7 +4529,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
       </c>
@@ -4590,7 +4542,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
@@ -4603,7 +4555,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
       </c>
@@ -4616,7 +4568,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
       </c>
@@ -4629,7 +4581,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
@@ -4642,7 +4594,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
       </c>
@@ -4655,7 +4607,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
       </c>
@@ -4668,7 +4620,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
       </c>
@@ -4681,7 +4633,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
       </c>
@@ -4694,7 +4646,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
       </c>
@@ -4707,7 +4659,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
@@ -4720,7 +4672,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
@@ -4733,7 +4685,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
       </c>
@@ -4746,7 +4698,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
       </c>
@@ -4759,7 +4711,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
@@ -4772,7 +4724,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
       </c>
@@ -4785,7 +4737,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
       </c>
@@ -4798,7 +4750,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
       </c>
@@ -4811,7 +4763,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
       </c>
@@ -4824,7 +4776,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
       </c>
@@ -4839,7 +4791,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
       </c>
@@ -4854,7 +4806,7 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
       </c>
@@ -4869,7 +4821,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
       </c>
@@ -4882,7 +4834,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
       </c>
@@ -4895,7 +4847,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
       </c>
@@ -4908,7 +4860,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4921,7 +4873,7 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="49" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4936,7 +4888,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
       </c>
@@ -4949,7 +4901,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
       </c>
@@ -4962,7 +4914,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
       </c>
@@ -4975,7 +4927,7 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
       </c>
@@ -4988,7 +4940,7 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
       </c>
@@ -5001,7 +4953,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
       </c>
@@ -5014,7 +4966,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
       </c>
@@ -5027,7 +4979,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
@@ -5042,7 +4994,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
       </c>
@@ -5055,7 +5007,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
       </c>
@@ -5070,7 +5022,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
@@ -5083,7 +5035,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="48" t="s">
+      <c r="A61" s="49" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -5098,7 +5050,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
       </c>
@@ -5111,7 +5063,7 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
       </c>
@@ -5124,7 +5076,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="49" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5139,7 +5091,7 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
       </c>
@@ -5152,7 +5104,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
       </c>
@@ -5165,7 +5117,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="49" t="s">
         <v>169</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -5180,11 +5132,11 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="48"/>
-      <c r="B68" s="54" t="s">
+      <c r="A68" s="49"/>
+      <c r="B68" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5193,16 +5145,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="48"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="49"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="48"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
       </c>
@@ -5215,11 +5167,11 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5228,16 +5180,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="48"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="48"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
       </c>
@@ -5250,7 +5202,7 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="48"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -5263,7 +5215,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -5278,11 +5230,11 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="48"/>
-      <c r="B76" s="54" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5291,20 +5243,20 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="48"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="49"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="48"/>
-      <c r="B78" s="49" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5313,16 +5265,16 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="48"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
       </c>
@@ -5335,7 +5287,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="48"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
       </c>
@@ -5348,7 +5300,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="48" t="s">
+      <c r="A82" s="49" t="s">
         <v>104</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -5363,11 +5315,11 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="48"/>
-      <c r="B83" s="50" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5376,16 +5328,16 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="48"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
       </c>
@@ -5398,7 +5350,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
       </c>
@@ -5496,7 +5448,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -5507,7 +5459,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
@@ -5516,7 +5468,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
@@ -5525,7 +5477,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="78.75">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
@@ -5632,7 +5584,7 @@
       </c>
     </row>
     <row r="2" spans="1:15232" ht="27">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5655,7 +5607,7 @@
       </c>
     </row>
     <row r="3" spans="1:15232" ht="54">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -5676,7 +5628,7 @@
       </c>
     </row>
     <row r="4" spans="1:15232">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -5689,7 +5641,7 @@
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:15232">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
@@ -5710,7 +5662,7 @@
       </c>
     </row>
     <row r="6" spans="1:15232">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5723,7 +5675,7 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:15232">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
       </c>
@@ -5742,7 +5694,7 @@
       </c>
     </row>
     <row r="8" spans="1:15232" ht="27">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
       </c>
@@ -5761,7 +5713,7 @@
       <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:15232">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
       </c>
@@ -5780,7 +5732,7 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:15232">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
       </c>
@@ -5797,7 +5749,7 @@
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:15232">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
       </c>
@@ -5814,7 +5766,7 @@
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:15232">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
       </c>
@@ -5851,7 +5803,7 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:15232" s="15" customFormat="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>166</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -21095,7 +21047,7 @@
       <c r="VMV15" s="18"/>
     </row>
     <row r="16" spans="1:15232">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
@@ -21116,7 +21068,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
       </c>
@@ -21137,7 +21089,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
       </c>
@@ -21158,7 +21110,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="18" customFormat="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
       </c>
@@ -21177,7 +21129,7 @@
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" s="18" customFormat="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
       </c>
@@ -21198,7 +21150,7 @@
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
       </c>
@@ -21219,7 +21171,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
       </c>
@@ -21240,7 +21192,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="18" customFormat="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
@@ -21261,7 +21213,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
       </c>
@@ -21282,7 +21234,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
       </c>
@@ -21303,7 +21255,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
       </c>
@@ -21324,7 +21276,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
       </c>
@@ -21345,7 +21297,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="18" customFormat="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
       </c>
@@ -21364,7 +21316,7 @@
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
       </c>
@@ -21385,7 +21337,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
       </c>
@@ -21406,7 +21358,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
       </c>
@@ -21427,7 +21379,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
       </c>
@@ -21448,7 +21400,7 @@
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
       </c>
@@ -21469,7 +21421,7 @@
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -21490,7 +21442,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -21511,7 +21463,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
       </c>
@@ -21532,7 +21484,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
       </c>
@@ -21553,7 +21505,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -21576,7 +21528,7 @@
       <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -21599,7 +21551,7 @@
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
       </c>
@@ -21622,7 +21574,7 @@
       <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
       </c>
@@ -21645,7 +21597,7 @@
       <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
       </c>
@@ -21668,7 +21620,7 @@
       <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
       </c>
@@ -21689,7 +21641,7 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="18" customFormat="1">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
       </c>
@@ -21708,7 +21660,7 @@
       <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" s="18" customFormat="1">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
       </c>
@@ -21727,7 +21679,7 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
       </c>
@@ -21746,7 +21698,7 @@
       <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" s="18" customFormat="1">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
       </c>
@@ -21763,7 +21715,7 @@
       <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" s="18" customFormat="1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
       </c>
@@ -21780,7 +21732,7 @@
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" s="18" customFormat="1">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
       </c>
@@ -21797,7 +21749,7 @@
       <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" s="18" customFormat="1">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
       </c>
@@ -21836,7 +21788,7 @@
       <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" s="18" customFormat="1">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="49" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -21855,7 +21807,7 @@
       <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" s="18" customFormat="1">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
       </c>
@@ -21872,7 +21824,7 @@
       <c r="I54" s="28"/>
     </row>
     <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
       </c>
@@ -21893,7 +21845,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="18" customFormat="1">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
       </c>
@@ -21910,7 +21862,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" s="18" customFormat="1">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
       </c>
@@ -21927,7 +21879,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" s="18" customFormat="1">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
       </c>
@@ -21944,7 +21896,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" s="18" customFormat="1">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
       </c>
@@ -21961,7 +21913,7 @@
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" s="18" customFormat="1">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
       </c>
@@ -21978,7 +21930,7 @@
       <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" s="18" customFormat="1">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
       </c>
@@ -21997,7 +21949,7 @@
       <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" s="18" customFormat="1">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
       </c>
@@ -22014,7 +21966,7 @@
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" s="18" customFormat="1">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
       </c>
@@ -22033,7 +21985,7 @@
       <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" s="18" customFormat="1">
-      <c r="A64" s="48"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
       </c>
@@ -22072,7 +22024,7 @@
       <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="58" t="s">
         <v>176</v>
       </c>
       <c r="B67" s="21" t="s">
@@ -22095,7 +22047,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A68" s="57"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
       </c>
@@ -22116,7 +22068,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" s="18" customFormat="1">
-      <c r="A69" s="57"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
       </c>
@@ -22155,7 +22107,7 @@
       <c r="I71" s="28"/>
     </row>
     <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="58" t="s">
         <v>168</v>
       </c>
       <c r="B72" s="21" t="s">
@@ -22178,7 +22130,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A73" s="57"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
       </c>
@@ -22199,7 +22151,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" s="18" customFormat="1">
-      <c r="A74" s="57"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
       </c>
@@ -22238,7 +22190,7 @@
       <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="49" t="s">
         <v>169</v>
       </c>
       <c r="B77" s="21" t="s">
@@ -22261,7 +22213,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A78" s="48"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
       </c>
@@ -22282,7 +22234,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" s="18" customFormat="1">
-      <c r="A79" s="48"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
@@ -22295,7 +22247,7 @@
       <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" s="18" customFormat="1">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
       </c>
@@ -22316,7 +22268,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" s="18" customFormat="1">
-      <c r="A81" s="48"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
       </c>
@@ -22337,7 +22289,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" s="18" customFormat="1">
-      <c r="A82" s="48"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
@@ -22350,7 +22302,7 @@
       <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A83" s="48"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
       </c>
@@ -22371,7 +22323,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" s="18" customFormat="1">
-      <c r="A84" s="48"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
       </c>
@@ -22410,7 +22362,7 @@
       <c r="I86" s="28"/>
     </row>
     <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
-      <c r="A87" s="48" t="s">
+      <c r="A87" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B87" s="21" t="s">
@@ -22433,7 +22385,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A88" s="48"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
       </c>
@@ -22454,7 +22406,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" s="18" customFormat="1">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -22467,7 +22419,7 @@
       <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A90" s="48"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
       </c>
@@ -22488,7 +22440,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" s="18" customFormat="1">
-      <c r="A91" s="48"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
@@ -22501,7 +22453,7 @@
       <c r="I91" s="28"/>
     </row>
     <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A92" s="48"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
       </c>
@@ -22522,7 +22474,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" s="18" customFormat="1">
-      <c r="A93" s="48"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
       </c>
@@ -22561,7 +22513,7 @@
       <c r="I95" s="28"/>
     </row>
     <row r="96" spans="1:9" s="18" customFormat="1">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="49" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="21" t="s">
@@ -22584,7 +22536,7 @@
       <c r="I96" s="28"/>
     </row>
     <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A97" s="48"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
       </c>
@@ -22605,7 +22557,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="18" customFormat="1">
-      <c r="A98" s="48"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -22618,7 +22570,7 @@
       <c r="I98" s="28"/>
     </row>
     <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
-      <c r="A99" s="48"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
       </c>
@@ -22639,7 +22591,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" s="18" customFormat="1">
-      <c r="A100" s="48"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
       </c>
@@ -23095,11 +23047,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23134,7 +23085,7 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>320</v>
@@ -23147,7 +23098,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>165</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -23157,7 +23108,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23172,14 +23123,14 @@
         <v>322</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
@@ -23187,7 +23138,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23202,14 +23153,14 @@
         <v>322</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
@@ -23217,7 +23168,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23232,14 +23183,14 @@
         <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" s="48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="49" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -23253,17 +23204,17 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1">
-      <c r="A6" s="48"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
       </c>
@@ -23274,24 +23225,24 @@
         <v>302</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1">
-      <c r="A7" s="48"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
       </c>
@@ -23309,17 +23260,17 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1">
-      <c r="A8" s="48"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
       </c>
@@ -23337,17 +23288,17 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="48"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="49"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
       </c>
@@ -23359,17 +23310,17 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1">
-      <c r="A10" s="48"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
       </c>
@@ -23387,17 +23338,17 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1">
-      <c r="A11" s="48"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="49"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
       </c>
@@ -23408,24 +23359,24 @@
         <v>302</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" s="48"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
       </c>
@@ -23436,24 +23387,24 @@
         <v>302</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1">
-      <c r="A13" s="48"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="49"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
@@ -23471,17 +23422,17 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="48"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="49"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
       </c>
@@ -23499,17 +23450,17 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1">
-      <c r="A15" s="48"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="49"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
       </c>
@@ -23527,17 +23478,17 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1">
-      <c r="A16" s="48"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="49"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
       </c>
@@ -23555,17 +23506,17 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1">
-      <c r="A17" s="48"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="49"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
       </c>
@@ -23583,17 +23534,17 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
-      <c r="A18" s="48"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="49"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
       </c>
@@ -23603,17 +23554,17 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1">
-      <c r="A19" s="48"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="49"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
       </c>
@@ -23621,27 +23572,27 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1">
-      <c r="A20" s="48"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="49"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
       </c>
@@ -23649,27 +23600,27 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
-      <c r="A21" s="48"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="49"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
       </c>
@@ -23687,17 +23638,17 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1">
-      <c r="A22" s="48"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="49"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
       </c>
@@ -23715,17 +23666,17 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J22" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="21" t="s">
         <v>200</v>
       </c>
@@ -23751,11 +23702,11 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
-      <c r="A24" s="48"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="49"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
       </c>
@@ -23763,27 +23714,27 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1">
-      <c r="A25" s="48"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
       </c>
@@ -23791,27 +23742,27 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1">
-      <c r="A26" s="48"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="49"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
       </c>
@@ -23829,17 +23780,17 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
-      <c r="A27" s="48"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
       </c>
@@ -23847,27 +23798,27 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1">
-      <c r="A28" s="48"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
       </c>
@@ -23884,7 +23835,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>323</v>
@@ -23893,11 +23844,11 @@
         <v>325</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1">
-      <c r="A29" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
       </c>
@@ -23923,11 +23874,11 @@
         <v>325</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1">
-      <c r="A30" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
       </c>
@@ -23944,7 +23895,7 @@
         <v>304</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>323</v>
@@ -23953,11 +23904,11 @@
         <v>325</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1">
-      <c r="A31" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
       </c>
@@ -23974,7 +23925,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>323</v>
@@ -23983,11 +23934,11 @@
         <v>325</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1">
-      <c r="A32" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="49"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
       </c>
@@ -24004,7 +23955,7 @@
         <v>308</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
@@ -24013,11 +23964,11 @@
         <v>325</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
-      <c r="A33" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
       </c>
@@ -24034,7 +23985,7 @@
         <v>295</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>323</v>
@@ -24043,11 +23994,11 @@
         <v>325</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1">
-      <c r="A34" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="49"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
       </c>
@@ -24064,7 +24015,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>323</v>
@@ -24073,11 +24024,11 @@
         <v>325</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1">
-      <c r="A35" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="49"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
       </c>
@@ -24094,7 +24045,7 @@
         <v>295</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>323</v>
@@ -24103,11 +24054,11 @@
         <v>325</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1">
-      <c r="A36" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
       </c>
@@ -24133,11 +24084,11 @@
         <v>325</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
-      <c r="A37" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
       </c>
@@ -24154,7 +24105,7 @@
         <v>304</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>323</v>
@@ -24163,11 +24114,11 @@
         <v>325</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1">
-      <c r="A38" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="49"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
       </c>
@@ -24184,7 +24135,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>323</v>
@@ -24193,11 +24144,11 @@
         <v>325</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1">
-      <c r="A39" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
       </c>
@@ -24214,7 +24165,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>323</v>
@@ -24223,11 +24174,11 @@
         <v>325</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="21" t="s">
         <v>206</v>
       </c>
@@ -24235,7 +24186,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24252,12 +24203,12 @@
       <c r="I40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J40" s="72" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
-      <c r="A41" s="48" t="s">
+      <c r="J40" s="48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="49" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -24275,11 +24226,11 @@
         <v>325</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
-      <c r="A42" s="48"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
       </c>
@@ -24294,8 +24245,8 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
-      <c r="A43" s="48"/>
+    <row r="43" spans="1:10">
+      <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
       </c>
@@ -24310,8 +24261,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" hidden="1">
-      <c r="A44" s="48"/>
+    <row r="44" spans="1:10">
+      <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
       </c>
@@ -24326,8 +24277,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
-      <c r="A45" s="48"/>
+    <row r="45" spans="1:10">
+      <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
       </c>
@@ -24342,8 +24293,8 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
-      <c r="A46" s="48"/>
+    <row r="46" spans="1:10">
+      <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
       </c>
@@ -24358,8 +24309,8 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
-      <c r="A47" s="48"/>
+    <row r="47" spans="1:10">
+      <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
       </c>
@@ -24374,8 +24325,8 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:10">
+      <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
       </c>
@@ -24390,8 +24341,8 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
-      <c r="A49" s="48" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" s="49" t="s">
         <v>176</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -24419,11 +24370,11 @@
         <v>325</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
-      <c r="A50" s="48"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
       </c>
@@ -24449,11 +24400,11 @@
         <v>325</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
-      <c r="A51" s="48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="49" t="s">
         <v>168</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -24484,8 +24435,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
-      <c r="A52" s="48"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="49"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
       </c>
@@ -24508,14 +24459,14 @@
         <v>323</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="121.5" hidden="1">
-      <c r="A53" s="48" t="s">
+    </row>
+    <row r="53" spans="1:10" ht="121.5">
+      <c r="A53" s="49" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -24525,16 +24476,16 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>321</v>
@@ -24543,11 +24494,11 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" s="48"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
       </c>
@@ -24555,29 +24506,29 @@
         <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
-      <c r="A55" s="48"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="49"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
       </c>
@@ -24585,29 +24536,29 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
-      <c r="A56" s="48"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="49"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
       </c>
@@ -24615,29 +24566,29 @@
         <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
-      <c r="A57" s="48"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="49"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
       </c>
@@ -24645,29 +24596,29 @@
         <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="27">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="49" t="s">
         <v>106</v>
       </c>
       <c r="B58" s="21" t="s">
@@ -24676,17 +24627,17 @@
       <c r="C58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>411</v>
+      <c r="G58" s="21" t="s">
+        <v>410</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24699,23 +24650,23 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="40.5">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="21" t="s">
         <v>217</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="21" t="s">
         <v>318</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -24729,24 +24680,24 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="21" t="s">
         <v>219</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>412</v>
+      <c r="G60" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>322</v>
@@ -24754,28 +24705,28 @@
       <c r="I60" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>330</v>
+      <c r="J60" s="33" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="21" t="s">
         <v>215</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E61" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="E61" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="21" t="s">
         <v>106</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -24785,11 +24736,11 @@
         <v>325</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="49" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="21" t="s">
@@ -24817,11 +24768,11 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="40.5">
-      <c r="A63" s="48"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="49"/>
       <c r="B63" s="21" t="s">
         <v>189</v>
       </c>
@@ -24838,7 +24789,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24847,11 +24798,11 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="148.5">
-      <c r="A64" s="48"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="21" t="s">
         <v>218</v>
       </c>
@@ -24868,7 +24819,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24877,16 +24828,12 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J64">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Bharathi"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
@@ -24941,7 +24888,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -24952,7 +24899,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
       </c>
@@ -25027,7 +24974,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="53" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -25038,7 +24985,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25091,18 +25038,18 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="60" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="45" t="s">
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
       </c>
@@ -25111,7 +25058,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
       </c>
@@ -25120,7 +25067,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
       </c>
@@ -25129,7 +25076,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
       </c>
@@ -25138,7 +25085,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
       </c>
@@ -25147,7 +25094,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
       </c>
@@ -25156,7 +25103,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
       </c>
@@ -25165,7 +25112,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
       </c>
@@ -25174,7 +25121,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
       </c>
@@ -25205,7 +25152,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="60" t="s">
         <v>166</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -25216,7 +25163,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
       </c>
@@ -25273,7 +25220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView topLeftCell="J97" workbookViewId="0">
+    <sheetView topLeftCell="J88" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -25302,94 +25249,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="67" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="70" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>358</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>357</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>358</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>357</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>358</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>357</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>358</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>357</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>358</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
@@ -25397,21 +25344,21 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -25419,43 +25366,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>359</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>360</v>
       </c>
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25463,43 +25410,43 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -25507,43 +25454,43 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -25551,43 +25498,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -25595,43 +25542,43 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -25639,43 +25586,43 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -25683,43 +25630,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>359</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>360</v>
       </c>
       <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -25727,43 +25674,43 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -25771,43 +25718,43 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -25815,43 +25762,43 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -25859,43 +25806,43 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T13" s="36"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -25903,43 +25850,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -25947,43 +25894,43 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -25991,43 +25938,43 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -26035,43 +25982,43 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -26079,43 +26026,43 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T18" s="36"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26123,43 +26070,43 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T19" s="36"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26167,43 +26114,43 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26211,43 +26158,43 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T21" s="36"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26255,43 +26202,43 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T22" s="36"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26299,35 +26246,35 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T23" s="36"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -26339,35 +26286,35 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T24" s="36"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -26379,35 +26326,35 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T25" s="36"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -26419,35 +26366,35 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T26" s="36"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -26459,23 +26406,23 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T27" s="36"/>
     </row>
@@ -26493,23 +26440,23 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T28" s="36"/>
     </row>
@@ -26527,23 +26474,23 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T29" s="36"/>
     </row>
@@ -26561,23 +26508,23 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T30" s="36"/>
     </row>
@@ -26595,23 +26542,23 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T31" s="36"/>
     </row>
@@ -26629,23 +26576,23 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T32" s="36"/>
     </row>
@@ -26663,25 +26610,25 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T33" s="36"/>
     </row>
@@ -26699,25 +26646,25 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T34" s="36"/>
     </row>
@@ -26735,23 +26682,23 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T35" s="36"/>
     </row>
@@ -26769,23 +26716,23 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T36" s="36"/>
     </row>
@@ -26803,23 +26750,23 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T37" s="36"/>
     </row>
@@ -26837,23 +26784,23 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T38" s="36"/>
     </row>
@@ -26871,23 +26818,23 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T39" s="36"/>
     </row>
@@ -26905,23 +26852,23 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T40" s="36"/>
     </row>
@@ -26939,23 +26886,23 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T41" s="36"/>
     </row>
@@ -26973,23 +26920,23 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T42" s="36"/>
     </row>
@@ -27007,23 +26954,23 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T43" s="36"/>
     </row>
@@ -27041,23 +26988,23 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T44" s="36"/>
     </row>
@@ -27075,23 +27022,23 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T45" s="36"/>
     </row>
@@ -27109,23 +27056,23 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T46" s="36"/>
     </row>
@@ -27143,23 +27090,23 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T47" s="36"/>
     </row>
@@ -27177,23 +27124,23 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T48" s="36"/>
     </row>
@@ -27211,23 +27158,23 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T49" s="36"/>
     </row>
@@ -27245,23 +27192,23 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T50" s="36"/>
     </row>
@@ -27279,13 +27226,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27307,13 +27254,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27335,16 +27282,16 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -27365,16 +27312,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -27395,16 +27342,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -27425,16 +27372,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -27455,16 +27402,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -27485,16 +27432,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -27515,16 +27462,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -27545,16 +27492,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -27575,16 +27522,16 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -27605,16 +27552,16 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -27635,16 +27582,16 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -27665,13 +27612,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -27693,13 +27640,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27721,13 +27668,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -27749,13 +27696,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -27777,13 +27724,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27805,13 +27752,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -27833,13 +27780,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -27861,13 +27808,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27889,13 +27836,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -27917,13 +27864,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -27945,13 +27892,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -27973,13 +27920,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -28001,13 +27948,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -28029,13 +27976,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -28057,13 +28004,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -28085,13 +28032,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -28113,13 +28060,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -28141,13 +28088,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -28169,13 +28116,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28197,13 +28144,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -28225,13 +28172,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -28253,13 +28200,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -28281,13 +28228,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28309,13 +28256,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -28337,13 +28284,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -28365,13 +28312,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -28393,13 +28340,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -28421,13 +28368,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -28449,13 +28396,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -28477,13 +28424,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -28505,13 +28452,13 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -28533,13 +28480,13 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -28561,13 +28508,13 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -28589,13 +28536,13 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -28617,13 +28564,13 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -28645,13 +28592,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -28673,13 +28620,13 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -28701,13 +28648,13 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -28729,13 +28676,13 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -28757,13 +28704,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28785,13 +28732,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28813,13 +28760,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28841,13 +28788,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28869,13 +28816,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -28897,13 +28844,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -28925,13 +28872,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28953,13 +28900,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28981,13 +28928,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -29009,13 +28956,13 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -29037,13 +28984,13 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -29065,13 +29012,13 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>

--- a/Sonia_IndiaLab_English_20200630.xlsx
+++ b/Sonia_IndiaLab_English_20200630.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="483">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -1881,48 +1881,6 @@
     <t>xa</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Working fine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">. But </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>REPAIR_DATA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> table is missing for f_CNT_MTRv form</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Kuroganeya_1 </t>
   </si>
   <si>
@@ -1932,55 +1890,6 @@
     <t>bicdb.ini</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The below tables are missing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>REPAIR_FIN,RCV_ERR,REPAIR_DATA,Q_DTL,Q_DATA,Q_MASTER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-The below sps are missing.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>sp_mikan,sp_kan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>DESKTOP-A8LLUUG\SQLEXPRESS</t>
   </si>
   <si>
@@ -2018,9 +1927,6 @@
   </si>
   <si>
     <t>REPAIR_FIN</t>
-  </si>
-  <si>
-    <t>REPAIR_DATA</t>
   </si>
   <si>
     <t>Q_DATA</t>
@@ -2314,6 +2220,55 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The below tables are missing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>REPAIR_FIN,RCV_ERR,Q_DTL,Q_DATA,Q_MASTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The below sps are missing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sp_mikan,sp_kan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -2766,25 +2721,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3968,10 +3923,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="49"/>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3980,8 +3935,8 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -4000,10 +3955,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="49"/>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="52" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -4012,8 +3967,8 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -4058,10 +4013,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="49"/>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4070,18 +4025,18 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="49"/>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4090,8 +4045,8 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -4136,10 +4091,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="49"/>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4148,8 +4103,8 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="49"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4185,6 +4140,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -4193,20 +4162,6 @@
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A49:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4272,7 +4227,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="49"/>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -4285,7 +4240,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="49"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="49"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4294,7 +4249,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="49"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -4307,7 +4262,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="49"/>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="49"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -5133,10 +5088,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="49"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5146,8 +5101,8 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="49"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5168,10 +5123,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="49"/>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="52" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5181,8 +5136,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5231,10 +5186,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="49"/>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5244,8 +5199,8 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="49"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5253,10 +5208,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="49"/>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5266,8 +5221,8 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5316,10 +5271,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="49"/>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5329,8 +5284,8 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="49"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -5385,6 +5340,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5401,12 +5362,6 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -23049,8 +23004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23108,7 +23063,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23126,7 +23081,7 @@
         <v>332</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
@@ -23138,7 +23093,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23156,7 +23111,7 @@
         <v>332</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23168,7 +23123,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23185,8 +23140,8 @@
       <c r="I4" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>409</v>
+      <c r="J4" s="33" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -23702,7 +23657,7 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -24186,7 +24141,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24204,7 +24159,7 @@
         <v>325</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -24494,7 +24449,7 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -24637,7 +24592,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24706,7 +24661,7 @@
         <v>325</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -24768,7 +24723,7 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -24789,7 +24744,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24798,7 +24753,7 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="148.5">
@@ -24819,7 +24774,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24828,7 +24783,7 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -24974,7 +24929,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="55" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24985,7 +24940,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25220,8 +25175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T145"/>
   <sheetViews>
-    <sheetView topLeftCell="J88" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="J22" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25366,7 +25321,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
@@ -25410,7 +25365,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
@@ -25454,13 +25409,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
@@ -25498,13 +25453,13 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
@@ -25542,7 +25497,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
@@ -25586,13 +25541,13 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
@@ -25630,7 +25585,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
@@ -25674,7 +25629,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
@@ -25718,7 +25673,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
@@ -25762,13 +25717,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
@@ -25806,13 +25761,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
@@ -25850,7 +25805,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
@@ -25894,13 +25849,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
@@ -25938,7 +25893,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
@@ -25982,13 +25937,13 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
@@ -26010,7 +25965,7 @@
         <v>379</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -26026,13 +25981,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
@@ -26054,7 +26009,7 @@
         <v>379</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -26070,13 +26025,13 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
@@ -26098,7 +26053,7 @@
         <v>379</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -26114,7 +26069,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
@@ -26142,7 +26097,7 @@
         <v>379</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -26158,7 +26113,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
@@ -26186,7 +26141,7 @@
         <v>379</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -26202,13 +26157,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
@@ -26230,7 +26185,7 @@
         <v>379</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -26246,13 +26201,13 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
@@ -26274,7 +26229,7 @@
         <v>379</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -26286,13 +26241,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
@@ -26314,7 +26269,7 @@
         <v>379</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -26326,7 +26281,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
@@ -26354,7 +26309,7 @@
         <v>379</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -26366,7 +26321,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
@@ -26394,7 +26349,7 @@
         <v>379</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -26406,13 +26361,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
@@ -26440,13 +26395,13 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
@@ -26474,14 +26429,12 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O29" s="34" t="s">
-        <v>427</v>
-      </c>
+      <c r="O29" s="34"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
         <v>358</v>
@@ -26508,7 +26461,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
@@ -26542,13 +26495,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
@@ -26576,13 +26529,13 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
@@ -26610,16 +26563,16 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q33" s="36" t="s">
         <v>358</v>
@@ -26646,16 +26599,16 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q34" s="36" t="s">
         <v>358</v>
@@ -26682,13 +26635,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
@@ -26716,7 +26669,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
@@ -26750,13 +26703,13 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
@@ -26784,13 +26737,13 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
@@ -26818,13 +26771,13 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
@@ -26852,13 +26805,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
@@ -26886,13 +26839,13 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
@@ -26920,7 +26873,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
@@ -26954,13 +26907,13 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
@@ -26988,7 +26941,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
@@ -27022,13 +26975,13 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
@@ -27056,13 +27009,13 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
@@ -27090,13 +27043,13 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
@@ -27124,13 +27077,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
@@ -27158,13 +27111,13 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
@@ -27192,13 +27145,13 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
@@ -27226,13 +27179,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27254,13 +27207,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27282,16 +27235,16 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -27312,16 +27265,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -27342,16 +27295,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -27372,16 +27325,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -27402,16 +27355,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -27432,16 +27385,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -27462,16 +27415,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -27492,16 +27445,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -27522,16 +27475,16 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -27552,16 +27505,16 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -27582,16 +27535,16 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -27612,7 +27565,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
@@ -27640,13 +27593,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27668,7 +27621,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
@@ -27696,7 +27649,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
@@ -27724,7 +27677,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
@@ -27752,7 +27705,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
@@ -27780,7 +27733,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
@@ -27808,13 +27761,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27836,7 +27789,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
@@ -27864,7 +27817,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
@@ -27892,7 +27845,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
@@ -27920,7 +27873,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
@@ -27948,7 +27901,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
@@ -27976,13 +27929,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -28004,10 +27957,10 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>380</v>
@@ -28032,10 +27985,10 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>371</v>
@@ -28060,10 +28013,10 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>383</v>
@@ -28088,10 +28041,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>384</v>
@@ -28116,13 +28069,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28144,10 +28097,10 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>386</v>
@@ -28172,10 +28125,10 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>387</v>
@@ -28200,10 +28153,10 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>399</v>
@@ -28228,13 +28181,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28256,7 +28209,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
@@ -28284,7 +28237,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
@@ -28312,7 +28265,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
@@ -28340,7 +28293,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
@@ -28368,7 +28321,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
@@ -28396,7 +28349,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
@@ -28424,7 +28377,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
@@ -28452,7 +28405,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
@@ -28480,7 +28433,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
@@ -28508,7 +28461,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
@@ -28536,7 +28489,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
@@ -28564,7 +28517,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
@@ -28592,7 +28545,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
@@ -28620,7 +28573,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
@@ -28648,7 +28601,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
@@ -28676,7 +28629,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
@@ -28704,13 +28657,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="34" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28732,13 +28685,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O104" s="34" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28760,13 +28713,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28788,13 +28741,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28816,7 +28769,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
@@ -28844,7 +28797,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
@@ -28872,13 +28825,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28900,13 +28853,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28928,13 +28881,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -28956,7 +28909,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
@@ -28984,7 +28937,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
@@ -29012,13 +28965,13 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
